--- a/Business Plan Documents/YPS Sales Forecast.xlsx
+++ b/Business Plan Documents/YPS Sales Forecast.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8340" tabRatio="694" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="19560" windowHeight="8340" tabRatio="694"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Forecast (Year 1)" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>Month 12</t>
   </si>
   <si>
-    <t>Your Personal Stylist</t>
-  </si>
-  <si>
     <t>Your Pesonal Stylist App (Free)</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   <si>
     <t>YEAR 4 TOTAL</t>
   </si>
+  <si>
+    <t>Bridge Mobile Phils, Inc.</t>
+  </si>
 </sst>
 </file>
 
@@ -315,9 +315,9 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="yyyy"/>
-    <numFmt numFmtId="170" formatCode="[$-3409]dd\ mmmm\,\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-3409]dd\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -358,12 +358,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -595,7 +589,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -685,16 +678,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,8 +974,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1003,9 +997,9 @@
       <c r="N1" s="23"/>
       <c r="O1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>29</v>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>61</v>
       </c>
       <c r="N2" s="23"/>
       <c r="O2" s="8"/>
@@ -1019,7 +1013,7 @@
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="69">
         <v>42156</v>
       </c>
       <c r="N4" s="23"/>
@@ -1084,25 +1078,25 @@
         <v>13</v>
       </c>
       <c r="O7" s="30"/>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="48">
         <f>DATE(YEAR(C4)-1,1,1)</f>
         <v>41640</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="48">
         <f>DATE(YEAR(C4)-2,1,1)</f>
         <v>41275</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="48">
         <f>DATE(YEAR(C4)-3,1,1)</f>
         <v>40909</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5">
         <v>15000</v>
@@ -1145,10 +1139,10 @@
         <v>750000</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="50"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="49"/>
     </row>
     <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -1192,10 +1186,10 @@
       </c>
       <c r="N9" s="33"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
     </row>
     <row r="10" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
@@ -1254,19 +1248,19 @@
         <v>397500</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="52">
+      <c r="P10" s="51">
         <f>P8*P9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1287,14 +1281,14 @@
       <c r="M11" s="9"/>
       <c r="N11" s="25"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="54"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6">
         <f>B8*0.1</f>
@@ -1349,10 +1343,10 @@
         <v>102500</v>
       </c>
       <c r="O12" s="16"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -1396,10 +1390,10 @@
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
     </row>
     <row r="14" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -1458,19 +1452,19 @@
         <v>10250000</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="52">
+      <c r="P14" s="51">
         <f>P12*P13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="43">
+      <c r="S14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1491,14 +1485,14 @@
       <c r="M15" s="9"/>
       <c r="N15" s="25"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="54"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="53"/>
     </row>
     <row r="16" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6">
         <v>5</v>
@@ -1541,10 +1535,10 @@
         <v>148</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
     </row>
     <row r="17" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -1588,10 +1582,10 @@
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
       <c r="T17" s="34"/>
     </row>
     <row r="18" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1651,19 +1645,19 @@
         <v>125500</v>
       </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="52">
+      <c r="P18" s="51">
         <f>P16*P17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="42">
         <f t="shared" ref="Q18:S18" si="5">Q16*Q17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1684,14 +1678,14 @@
       <c r="M19" s="9"/>
       <c r="N19" s="25"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="54"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="53"/>
     </row>
     <row r="20" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
         <f>B16*0.4</f>
@@ -1746,10 +1740,10 @@
         <v>59.2</v>
       </c>
       <c r="O20" s="16"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
     </row>
     <row r="21" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
@@ -1793,10 +1787,10 @@
       </c>
       <c r="N21" s="33"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
@@ -1855,19 +1849,19 @@
         <v>17760</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="52">
+      <c r="P22" s="51">
         <f>P20*P21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="42">
         <f t="shared" ref="Q22:S22" si="8">Q20*Q21</f>
         <v>0</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R22" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1888,14 +1882,14 @@
       <c r="M23" s="9"/>
       <c r="N23" s="25"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="54"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="53"/>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6">
         <f>B8*0.15</f>
@@ -1950,10 +1944,10 @@
         <v>140000</v>
       </c>
       <c r="O24" s="16"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
@@ -1997,10 +1991,10 @@
       </c>
       <c r="N25" s="33"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -2059,19 +2053,19 @@
         <v>2800000</v>
       </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="52">
+      <c r="P26" s="51">
         <f>P24*P25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2092,274 +2086,274 @@
       <c r="M27" s="9"/>
       <c r="N27" s="25"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="54"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="53"/>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="38">
         <f>SUM(B28:M28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="16"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="41"/>
+      <c r="A29" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="42">
         <f>B28*B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="42">
         <f t="shared" ref="C30:M30" si="12">C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K30" s="43">
+      <c r="K30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="43">
+      <c r="L30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="43">
         <f>SUM(B30:M30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="52">
+      <c r="P30" s="51">
         <f>P28*P29</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="43">
+      <c r="Q30" s="42">
         <f t="shared" ref="Q30:S30" si="13">Q28*Q29</f>
         <v>0</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="46"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="54"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="53"/>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="38">
         <f>SUM(B32:M32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="16"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41"/>
+      <c r="A33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="42">
         <f t="shared" ref="B34:M34" si="14">B32*B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K34" s="43">
+      <c r="K34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N34" s="44">
+      <c r="N34" s="43">
         <f>SUM(B34:M34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="52">
+      <c r="P34" s="51">
         <f>P32*P33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="43">
+      <c r="Q34" s="42">
         <f>Q32*Q33</f>
         <v>0</v>
       </c>
-      <c r="R34" s="43">
+      <c r="R34" s="42">
         <f>R32*R33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="43">
+      <c r="S34" s="42">
         <f>S32*S33</f>
         <v>0</v>
       </c>
@@ -2380,81 +2374,81 @@
       <c r="M35" s="10"/>
       <c r="N35" s="26"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="58"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="57"/>
     </row>
     <row r="36" spans="1:19" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="61">
+      <c r="B36" s="60">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
         <v>206050</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="60">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
         <v>343210</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="60">
         <f t="shared" si="15"/>
         <v>344450</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="60">
         <f t="shared" si="15"/>
         <v>479750</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="60">
         <f t="shared" si="15"/>
         <v>514815</v>
       </c>
-      <c r="G36" s="61">
+      <c r="G36" s="60">
         <f t="shared" si="15"/>
         <v>862425</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="60">
         <f t="shared" si="15"/>
         <v>1237425</v>
       </c>
-      <c r="I36" s="61">
+      <c r="I36" s="60">
         <f t="shared" si="15"/>
         <v>1725675</v>
       </c>
-      <c r="J36" s="61">
+      <c r="J36" s="60">
         <f t="shared" si="15"/>
         <v>1188600</v>
       </c>
-      <c r="K36" s="61">
+      <c r="K36" s="60">
         <f t="shared" si="15"/>
         <v>1969800</v>
       </c>
-      <c r="L36" s="61">
+      <c r="L36" s="60">
         <f t="shared" si="15"/>
         <v>1969800</v>
       </c>
-      <c r="M36" s="61">
+      <c r="M36" s="60">
         <f t="shared" si="15"/>
         <v>2748760</v>
       </c>
-      <c r="N36" s="62">
+      <c r="N36" s="61">
         <f>SUM(B36:M36)</f>
         <v>13590760</v>
       </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="52">
+      <c r="P36" s="51">
         <f>(P10+P14+P18+P22+P26+P30+P34)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="52">
+      <c r="Q36" s="51">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R36" s="59">
+      <c r="R36" s="58">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S36" s="59">
+      <c r="S36" s="58">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -2497,7 +2491,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2519,9 +2513,9 @@
       <c r="N1" s="23"/>
       <c r="O1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>29</v>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>61</v>
       </c>
       <c r="N2" s="23"/>
       <c r="O2" s="8"/>
@@ -2535,7 +2529,7 @@
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="69">
         <v>42156</v>
       </c>
       <c r="N4" s="23"/>
@@ -2600,25 +2594,25 @@
         <v>13</v>
       </c>
       <c r="O7" s="30"/>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="48">
         <f>DATE(YEAR(C4)-1,1,1)</f>
         <v>41640</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="48">
         <f>DATE(YEAR(C4)-2,1,1)</f>
         <v>41275</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="48">
         <f>DATE(YEAR(C4)-3,1,1)</f>
         <v>40909</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5">
         <v>60000</v>
@@ -2661,10 +2655,10 @@
         <v>1500000</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="50"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="49"/>
     </row>
     <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -2708,10 +2702,10 @@
       </c>
       <c r="N9" s="33"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
     </row>
     <row r="10" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
@@ -2770,19 +2764,19 @@
         <v>795000</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="52">
+      <c r="P10" s="51">
         <f>P8*P9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2803,14 +2797,14 @@
       <c r="M11" s="9"/>
       <c r="N11" s="25"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="54"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6">
         <f>B8*0.1</f>
@@ -2865,10 +2859,10 @@
         <v>195000</v>
       </c>
       <c r="O12" s="16"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -2912,10 +2906,10 @@
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
     </row>
     <row r="14" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -2974,19 +2968,19 @@
         <v>19500000</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="52">
+      <c r="P14" s="51">
         <f>P12*P13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="43">
+      <c r="S14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3007,14 +3001,14 @@
       <c r="M15" s="9"/>
       <c r="N15" s="25"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="54"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="53"/>
     </row>
     <row r="16" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6">
         <v>7</v>
@@ -3057,10 +3051,10 @@
         <v>172</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
     </row>
     <row r="17" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -3104,10 +3098,10 @@
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
       <c r="T17" s="34"/>
     </row>
     <row r="18" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3167,19 +3161,19 @@
         <v>144500</v>
       </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="52">
+      <c r="P18" s="51">
         <f>P16*P17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="42">
         <f t="shared" ref="Q18:S18" si="5">Q16*Q17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3200,14 +3194,14 @@
       <c r="M19" s="9"/>
       <c r="N19" s="25"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="54"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="53"/>
     </row>
     <row r="20" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
         <f>B16*0.4</f>
@@ -3262,10 +3256,10 @@
         <v>68.8</v>
       </c>
       <c r="O20" s="16"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
     </row>
     <row r="21" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
@@ -3309,10 +3303,10 @@
       </c>
       <c r="N21" s="33"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
@@ -3371,19 +3365,19 @@
         <v>20640</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="52">
+      <c r="P22" s="51">
         <f>P20*P21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="42">
         <f t="shared" ref="Q22:S22" si="8">Q20*Q21</f>
         <v>0</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R22" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3404,14 +3398,14 @@
       <c r="M23" s="9"/>
       <c r="N23" s="25"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="54"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="53"/>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6">
         <f>B8*0.15</f>
@@ -3466,10 +3460,10 @@
         <v>270000</v>
       </c>
       <c r="O24" s="16"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
@@ -3513,10 +3507,10 @@
       </c>
       <c r="N25" s="33"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -3575,19 +3569,19 @@
         <v>5400000</v>
       </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="52">
+      <c r="P26" s="51">
         <f>P24*P25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3608,274 +3602,274 @@
       <c r="M27" s="9"/>
       <c r="N27" s="25"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="54"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="53"/>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="38">
         <f>SUM(B28:M28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="16"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="41"/>
+      <c r="A29" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="42">
         <f>B28*B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="42">
         <f t="shared" ref="C30:M30" si="12">C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K30" s="43">
+      <c r="K30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="43">
+      <c r="L30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="43">
         <f>SUM(B30:M30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="52">
+      <c r="P30" s="51">
         <f>P28*P29</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="43">
+      <c r="Q30" s="42">
         <f t="shared" ref="Q30:S30" si="13">Q28*Q29</f>
         <v>0</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="46"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="54"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="53"/>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="38">
         <f>SUM(B32:M32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="16"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41"/>
+      <c r="A33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="42">
         <f t="shared" ref="B34:M34" si="14">B32*B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K34" s="43">
+      <c r="K34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N34" s="44">
+      <c r="N34" s="43">
         <f>SUM(B34:M34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="52">
+      <c r="P34" s="51">
         <f>P32*P33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="43">
+      <c r="Q34" s="42">
         <f>Q32*Q33</f>
         <v>0</v>
       </c>
-      <c r="R34" s="43">
+      <c r="R34" s="42">
         <f>R32*R33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="43">
+      <c r="S34" s="42">
         <f>S32*S33</f>
         <v>0</v>
       </c>
@@ -3896,81 +3890,81 @@
       <c r="M35" s="10"/>
       <c r="N35" s="26"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="58"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="57"/>
     </row>
     <row r="36" spans="1:19" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="61">
+      <c r="B36" s="60">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
         <v>816140</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="60">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
         <v>1250960</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="60">
         <f t="shared" si="15"/>
         <v>1468680</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="60">
         <f t="shared" si="15"/>
         <v>1901640</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="60">
         <f t="shared" si="15"/>
         <v>1023430</v>
       </c>
-      <c r="G36" s="61">
+      <c r="G36" s="60">
         <f t="shared" si="15"/>
         <v>1710290</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="60">
         <f t="shared" si="15"/>
         <v>2460290</v>
       </c>
-      <c r="I36" s="61">
+      <c r="I36" s="60">
         <f t="shared" si="15"/>
         <v>3436790</v>
       </c>
-      <c r="J36" s="61">
+      <c r="J36" s="60">
         <f t="shared" si="15"/>
         <v>1776740</v>
       </c>
-      <c r="K36" s="61">
+      <c r="K36" s="60">
         <f t="shared" si="15"/>
         <v>2948540</v>
       </c>
-      <c r="L36" s="61">
+      <c r="L36" s="60">
         <f t="shared" si="15"/>
         <v>2948540</v>
       </c>
-      <c r="M36" s="61">
+      <c r="M36" s="60">
         <f t="shared" si="15"/>
         <v>4118100</v>
       </c>
-      <c r="N36" s="62">
+      <c r="N36" s="61">
         <f>SUM(B36:M36)</f>
         <v>25860140</v>
       </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="52">
+      <c r="P36" s="51">
         <f>(P10+P14+P18+P22+P26+P30+P34)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="52">
+      <c r="Q36" s="51">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R36" s="59">
+      <c r="R36" s="58">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S36" s="59">
+      <c r="S36" s="58">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -4012,7 +4006,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4034,9 +4028,9 @@
       <c r="N1" s="23"/>
       <c r="O1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>29</v>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>61</v>
       </c>
       <c r="N2" s="23"/>
       <c r="O2" s="8"/>
@@ -4050,7 +4044,7 @@
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="69">
         <v>42156</v>
       </c>
       <c r="N4" s="23"/>
@@ -4115,25 +4109,25 @@
         <v>13</v>
       </c>
       <c r="O7" s="30"/>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="48">
         <f>DATE(YEAR(C4)-1,1,1)</f>
         <v>41640</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="48">
         <f>DATE(YEAR(C4)-2,1,1)</f>
         <v>41275</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="48">
         <f>DATE(YEAR(C4)-3,1,1)</f>
         <v>40909</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5">
         <v>90000</v>
@@ -4176,10 +4170,10 @@
         <v>2500000</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="50"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="49"/>
     </row>
     <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -4223,10 +4217,10 @@
       </c>
       <c r="N9" s="33"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
     </row>
     <row r="10" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
@@ -4285,19 +4279,19 @@
         <v>1325000</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="52">
+      <c r="P10" s="51">
         <f>P8*P9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4318,14 +4312,14 @@
       <c r="M11" s="9"/>
       <c r="N11" s="25"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="54"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6">
         <f>B8*0.1</f>
@@ -4380,10 +4374,10 @@
         <v>327000</v>
       </c>
       <c r="O12" s="16"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -4427,10 +4421,10 @@
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
     </row>
     <row r="14" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -4489,19 +4483,19 @@
         <v>32700000</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="52">
+      <c r="P14" s="51">
         <f>P12*P13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="43">
+      <c r="S14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4522,14 +4516,14 @@
       <c r="M15" s="9"/>
       <c r="N15" s="25"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="54"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="53"/>
     </row>
     <row r="16" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6">
         <v>9</v>
@@ -4572,10 +4566,10 @@
         <v>326</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
     </row>
     <row r="17" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -4619,10 +4613,10 @@
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
       <c r="T17" s="34"/>
     </row>
     <row r="18" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4682,19 +4676,19 @@
         <v>228500</v>
       </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="52">
+      <c r="P18" s="51">
         <f>P16*P17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="42">
         <f t="shared" ref="Q18:S18" si="5">Q16*Q17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4715,14 +4709,14 @@
       <c r="M19" s="9"/>
       <c r="N19" s="25"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="54"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="53"/>
     </row>
     <row r="20" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
         <f>B16*0.4</f>
@@ -4777,10 +4771,10 @@
         <v>130.39999999999998</v>
       </c>
       <c r="O20" s="16"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
     </row>
     <row r="21" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
@@ -4824,10 +4818,10 @@
       </c>
       <c r="N21" s="33"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
@@ -4886,19 +4880,19 @@
         <v>39120</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="52">
+      <c r="P22" s="51">
         <f>P20*P21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="42">
         <f t="shared" ref="Q22:S22" si="8">Q20*Q21</f>
         <v>0</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R22" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4919,14 +4913,14 @@
       <c r="M23" s="9"/>
       <c r="N23" s="25"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="54"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="53"/>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6">
         <f>B8*0.15</f>
@@ -4981,10 +4975,10 @@
         <v>452000</v>
       </c>
       <c r="O24" s="16"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
@@ -5028,10 +5022,10 @@
       </c>
       <c r="N25" s="33"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -5090,19 +5084,19 @@
         <v>9040000</v>
       </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="52">
+      <c r="P26" s="51">
         <f>P24*P25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5123,274 +5117,274 @@
       <c r="M27" s="9"/>
       <c r="N27" s="25"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="54"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="53"/>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="38">
         <f>SUM(B28:M28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="16"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="41"/>
+      <c r="A29" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="42">
         <f>B28*B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="42">
         <f t="shared" ref="C30:M30" si="12">C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K30" s="43">
+      <c r="K30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="43">
+      <c r="L30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="43">
         <f>SUM(B30:M30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="52">
+      <c r="P30" s="51">
         <f>P28*P29</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="43">
+      <c r="Q30" s="42">
         <f t="shared" ref="Q30:S30" si="13">Q28*Q29</f>
         <v>0</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="46"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="54"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="53"/>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="38">
         <f>SUM(B32:M32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="16"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41"/>
+      <c r="A33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="42">
         <f t="shared" ref="B34:M34" si="14">B32*B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K34" s="43">
+      <c r="K34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N34" s="44">
+      <c r="N34" s="43">
         <f>SUM(B34:M34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="52">
+      <c r="P34" s="51">
         <f>P32*P33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="43">
+      <c r="Q34" s="42">
         <f>Q32*Q33</f>
         <v>0</v>
       </c>
-      <c r="R34" s="43">
+      <c r="R34" s="42">
         <f>R32*R33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="43">
+      <c r="S34" s="42">
         <f>S32*S33</f>
         <v>0</v>
       </c>
@@ -5411,81 +5405,81 @@
       <c r="M35" s="10"/>
       <c r="N35" s="26"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="58"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="57"/>
     </row>
     <row r="36" spans="1:19" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="61">
+      <c r="B36" s="60">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
         <v>1223280</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="60">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
         <v>1874580</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="60">
         <f t="shared" si="15"/>
         <v>2200540</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="60">
         <f t="shared" si="15"/>
         <v>2930580</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="60">
         <f t="shared" si="15"/>
         <v>1836470</v>
       </c>
-      <c r="G36" s="61">
+      <c r="G36" s="60">
         <f t="shared" si="15"/>
         <v>3065530</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="60">
         <f t="shared" si="15"/>
         <v>4415530</v>
       </c>
-      <c r="I36" s="61">
+      <c r="I36" s="60">
         <f t="shared" si="15"/>
         <v>6173230</v>
       </c>
-      <c r="J36" s="61">
+      <c r="J36" s="60">
         <f t="shared" si="15"/>
         <v>2950780</v>
       </c>
-      <c r="K36" s="61">
+      <c r="K36" s="60">
         <f t="shared" si="15"/>
         <v>4903780</v>
       </c>
-      <c r="L36" s="61">
+      <c r="L36" s="60">
         <f t="shared" si="15"/>
         <v>4903780</v>
       </c>
-      <c r="M36" s="61">
+      <c r="M36" s="60">
         <f t="shared" si="15"/>
         <v>6854540</v>
       </c>
-      <c r="N36" s="62">
+      <c r="N36" s="61">
         <f>SUM(B36:M36)</f>
         <v>43332620</v>
       </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="52">
+      <c r="P36" s="51">
         <f>(P10+P14+P18+P22+P26+P30+P34)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="52">
+      <c r="Q36" s="51">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R36" s="59">
+      <c r="R36" s="58">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S36" s="59">
+      <c r="S36" s="58">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -5526,8 +5520,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5549,9 +5543,9 @@
       <c r="N1" s="23"/>
       <c r="O1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>29</v>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>61</v>
       </c>
       <c r="N2" s="23"/>
       <c r="O2" s="8"/>
@@ -5565,7 +5559,7 @@
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="69">
         <v>42156</v>
       </c>
       <c r="N4" s="23"/>
@@ -5630,25 +5624,25 @@
         <v>13</v>
       </c>
       <c r="O7" s="30"/>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="48">
         <f>DATE(YEAR(C4)-1,1,1)</f>
         <v>41640</v>
       </c>
-      <c r="R7" s="49">
+      <c r="R7" s="48">
         <f>DATE(YEAR(C4)-2,1,1)</f>
         <v>41275</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="48">
         <f>DATE(YEAR(C4)-3,1,1)</f>
         <v>40909</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5">
         <v>150000</v>
@@ -5691,10 +5685,10 @@
         <v>3600000</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="50"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="49"/>
     </row>
     <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -5738,10 +5732,10 @@
       </c>
       <c r="N9" s="33"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
     </row>
     <row r="10" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
@@ -5800,19 +5794,19 @@
         <v>1908000</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="52">
+      <c r="P10" s="51">
         <f>P8*P9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5833,14 +5827,14 @@
       <c r="M11" s="9"/>
       <c r="N11" s="25"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="54"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6">
         <f>B8*0.1</f>
@@ -5895,10 +5889,10 @@
         <v>465000</v>
       </c>
       <c r="O12" s="16"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -5942,10 +5936,10 @@
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
     </row>
     <row r="14" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -6004,19 +5998,19 @@
         <v>46500000</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="52">
+      <c r="P14" s="51">
         <f>P12*P13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="43">
+      <c r="S14" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6037,14 +6031,14 @@
       <c r="M15" s="9"/>
       <c r="N15" s="25"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="54"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="53"/>
     </row>
     <row r="16" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6">
         <v>11</v>
@@ -6087,10 +6081,10 @@
         <v>220</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
     </row>
     <row r="17" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -6134,10 +6128,10 @@
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
       <c r="T17" s="34"/>
     </row>
     <row r="18" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6197,19 +6191,19 @@
         <v>182500</v>
       </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="52">
+      <c r="P18" s="51">
         <f>P16*P17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="42">
         <f t="shared" ref="Q18:S18" si="5">Q16*Q17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6230,14 +6224,14 @@
       <c r="M19" s="9"/>
       <c r="N19" s="25"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="54"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="53"/>
     </row>
     <row r="20" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
         <f>B16*0.4</f>
@@ -6292,10 +6286,10 @@
         <v>88</v>
       </c>
       <c r="O20" s="16"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
     </row>
     <row r="21" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
@@ -6339,10 +6333,10 @@
       </c>
       <c r="N21" s="33"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
@@ -6401,19 +6395,19 @@
         <v>26400</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="52">
+      <c r="P22" s="51">
         <f>P20*P21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="42">
         <f t="shared" ref="Q22:S22" si="8">Q20*Q21</f>
         <v>0</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R22" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6434,14 +6428,14 @@
       <c r="M23" s="9"/>
       <c r="N23" s="25"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="54"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="53"/>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6">
         <f>B8*0.15</f>
@@ -6496,10 +6490,10 @@
         <v>645000</v>
       </c>
       <c r="O24" s="16"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
@@ -6543,10 +6537,10 @@
       </c>
       <c r="N25" s="33"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -6605,19 +6599,19 @@
         <v>12900000</v>
       </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="52">
+      <c r="P26" s="51">
         <f>P24*P25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6638,274 +6632,274 @@
       <c r="M27" s="9"/>
       <c r="N27" s="25"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="54"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="53"/>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="39">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="38">
         <f>SUM(B28:M28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="16"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="41"/>
+      <c r="A29" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="42">
         <f>B28*B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="42">
         <f t="shared" ref="C30:M30" si="12">C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K30" s="43">
+      <c r="K30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="43">
+      <c r="L30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="42">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="43">
         <f>SUM(B30:M30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="52">
+      <c r="P30" s="51">
         <f>P28*P29</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="43">
+      <c r="Q30" s="42">
         <f t="shared" ref="Q30:S30" si="13">Q28*Q29</f>
         <v>0</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="46"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="54"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="53"/>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="38">
         <f>SUM(B32:M32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="16"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41"/>
+      <c r="A33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="42">
         <f t="shared" ref="B34:M34" si="14">B32*B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K34" s="43">
+      <c r="K34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="42">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N34" s="44">
+      <c r="N34" s="43">
         <f>SUM(B34:M34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="52">
+      <c r="P34" s="51">
         <f>P32*P33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="43">
+      <c r="Q34" s="42">
         <f>Q32*Q33</f>
         <v>0</v>
       </c>
-      <c r="R34" s="43">
+      <c r="R34" s="42">
         <f>R32*R33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="43">
+      <c r="S34" s="42">
         <f>S32*S33</f>
         <v>0</v>
       </c>
@@ -6926,81 +6920,81 @@
       <c r="M35" s="10"/>
       <c r="N35" s="26"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="58"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="57"/>
     </row>
     <row r="36" spans="1:19" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="61">
+      <c r="B36" s="60">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
         <v>2036320</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="60">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
         <v>3120580</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="60">
         <f t="shared" si="15"/>
         <v>3663020</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="60">
         <f t="shared" si="15"/>
         <v>4745420</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="60">
         <f t="shared" si="15"/>
         <v>2548035</v>
       </c>
-      <c r="G36" s="61">
+      <c r="G36" s="60">
         <f t="shared" si="15"/>
         <v>4251645</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="60">
         <f t="shared" si="15"/>
         <v>6126645</v>
       </c>
-      <c r="I36" s="61">
+      <c r="I36" s="60">
         <f t="shared" si="15"/>
         <v>8567895</v>
       </c>
-      <c r="J36" s="61">
+      <c r="J36" s="60">
         <f t="shared" si="15"/>
         <v>3978345</v>
       </c>
-      <c r="K36" s="61">
+      <c r="K36" s="60">
         <f t="shared" si="15"/>
         <v>6614895</v>
       </c>
-      <c r="L36" s="61">
+      <c r="L36" s="60">
         <f t="shared" si="15"/>
         <v>6614895</v>
       </c>
-      <c r="M36" s="61">
+      <c r="M36" s="60">
         <f t="shared" si="15"/>
         <v>9249204.9999999981</v>
       </c>
-      <c r="N36" s="62">
+      <c r="N36" s="61">
         <f>SUM(B36:M36)</f>
         <v>61516900</v>
       </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="52">
+      <c r="P36" s="51">
         <f>(P10+P14+P18+P22+P26+P30+P34)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="52">
+      <c r="Q36" s="51">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R36" s="59">
+      <c r="R36" s="58">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S36" s="59">
+      <c r="S36" s="58">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7038,7 +7032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -7053,1021 +7047,1021 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="65">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="62"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="66">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="63"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>41</v>
+      <c r="C4" s="63" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="64">
-        <v>0</v>
-      </c>
-      <c r="B5" s="64">
+      <c r="A5" s="63">
+        <v>0</v>
+      </c>
+      <c r="B5" s="63">
         <v>0.02</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="63">
         <f>C2*B5</f>
         <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="64">
+      <c r="A6" s="63">
         <v>0.5</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="63">
         <v>0.05</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="63">
         <f>C2*B6</f>
         <v>250000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
+      <c r="A7" s="63">
         <v>1</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="63">
         <v>0.08</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <f>C2*B7</f>
         <v>400000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="64">
+      <c r="A8" s="63">
         <v>1.5</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="63">
         <v>0.1</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="63">
         <f>C2*B8</f>
         <v>500000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="64">
+      <c r="A9" s="63">
         <v>2</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="63">
         <v>0.12</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="63">
         <f>C2*B9</f>
         <v>600000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="64">
+      <c r="A10" s="63">
         <v>2.5</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="63">
         <v>0.18</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="63">
         <f>C2*B10</f>
         <v>900000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="64">
+      <c r="A11" s="63">
         <v>3</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="63">
         <v>0.2</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="63">
         <f>C2*B11</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="64">
+      <c r="A12" s="63">
         <v>3.5</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="63">
         <v>0.25</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="63">
         <f>C2*B12</f>
         <v>1250000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="75">
+      <c r="A13" s="73">
         <v>4</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="73">
         <v>0.27</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="73">
         <f>C2*B13</f>
         <v>1350000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="65">
+      <c r="A15" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="64">
         <f>SUM(B5:B13)</f>
         <v>1.27</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="64">
         <f>SUM(C5:C12)</f>
         <v>5000000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="64" t="s">
+      <c r="A18" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="64" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="64">
-        <v>0</v>
-      </c>
-      <c r="B19" s="64">
+      <c r="A19" s="63">
+        <v>0</v>
+      </c>
+      <c r="B19" s="63">
         <v>1</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="63">
         <v>0.15</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="63">
         <f>G21*C19</f>
         <v>15000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63">
         <v>2</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="63">
         <v>0.25</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="63">
         <f>G21*C20</f>
         <v>25000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63">
         <v>3</v>
       </c>
-      <c r="C21" s="64">
+      <c r="C21" s="63">
         <v>0.25</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="63">
         <f>G21*C21</f>
         <v>25000</v>
       </c>
-      <c r="F21" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="69">
+      <c r="F21" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="68">
         <f>C5</f>
         <v>100000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63">
         <v>4</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="63">
         <v>0.35</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="63">
         <f>G21*C22</f>
         <v>35000</v>
       </c>
-      <c r="F22" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="69">
+      <c r="F22" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="68">
         <f>SUM(C19:C22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="64">
+      <c r="A23" s="63">
         <v>0.5</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23" s="63">
         <v>5</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="63">
         <v>0.15</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="63">
         <f>G25*C23</f>
         <v>37500</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64">
+      <c r="A24" s="63"/>
+      <c r="B24" s="63">
         <v>6</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="63">
         <v>0.25</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="63">
         <f>G25*C24</f>
         <v>62500</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63">
         <v>7</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="63">
         <v>0.25</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="63">
         <f>G25*C25</f>
         <v>62500</v>
       </c>
-      <c r="F25" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="68">
+      <c r="F25" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="67">
         <f>C6</f>
         <v>250000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64">
+      <c r="A26" s="63"/>
+      <c r="B26" s="63">
         <v>8</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="63">
         <v>0.35</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="63">
         <f>G25*C26</f>
         <v>87500</v>
       </c>
-      <c r="F26" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="68">
+      <c r="F26" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="67">
         <f>SUM(C23:C26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="64">
+      <c r="A27" s="63">
         <v>1</v>
       </c>
-      <c r="B27" s="64">
+      <c r="B27" s="63">
         <v>9</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="63">
         <v>0.15</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="63">
         <f>G29*C27</f>
         <v>60000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64">
+      <c r="A28" s="63"/>
+      <c r="B28" s="63">
         <v>10</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="63">
         <v>0.25</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="63">
         <f>G29*C28</f>
         <v>100000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64">
+      <c r="A29" s="63"/>
+      <c r="B29" s="63">
         <v>11</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="63">
         <v>0.25</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="63">
         <f>G29*C29</f>
         <v>100000</v>
       </c>
-      <c r="F29" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="67">
+      <c r="F29" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="66">
         <f>C7</f>
         <v>400000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64">
+      <c r="A30" s="63"/>
+      <c r="B30" s="63">
         <v>12</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="63">
         <v>0.35</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="63">
         <f>G29*C30</f>
         <v>140000</v>
       </c>
-      <c r="F30" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="67">
+      <c r="F30" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="66">
         <f>SUM(C27:C30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="64" t="s">
+      <c r="A33" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="64" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="64">
+      <c r="A34" s="63">
         <v>1</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="63">
         <v>1</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="63">
         <v>0.15</v>
       </c>
-      <c r="D34" s="64">
+      <c r="D34" s="63">
         <f>G36*C34</f>
         <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64">
+      <c r="A35" s="63"/>
+      <c r="B35" s="63">
         <v>2</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="63">
         <v>0.23</v>
       </c>
-      <c r="D35" s="64">
+      <c r="D35" s="63">
         <f>G36*C35</f>
         <v>92000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64">
+      <c r="A36" s="63"/>
+      <c r="B36" s="63">
         <v>3</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="63">
         <v>0.27</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="63">
         <f>G36*C36</f>
         <v>108000</v>
       </c>
-      <c r="F36" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="69">
+      <c r="F36" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="68">
         <f>C7</f>
         <v>400000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64">
+      <c r="A37" s="63"/>
+      <c r="B37" s="63">
         <v>4</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="63">
         <v>0.35</v>
       </c>
-      <c r="D37" s="64">
+      <c r="D37" s="63">
         <f>G36*C37</f>
         <v>140000</v>
       </c>
-      <c r="F37" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="69">
+      <c r="F37" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="68">
         <f>SUM(C34:C37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="64">
+      <c r="A38" s="63">
         <v>1.5</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="63">
         <v>5</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="63">
         <v>0.15</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="63">
         <f>G40*C38</f>
         <v>75000</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64">
+      <c r="A39" s="63"/>
+      <c r="B39" s="63">
         <v>6</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="63">
         <v>0.25</v>
       </c>
-      <c r="D39" s="64">
+      <c r="D39" s="63">
         <f>G40*C39</f>
         <v>125000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64">
+      <c r="A40" s="63"/>
+      <c r="B40" s="63">
         <v>7</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="63">
         <v>0.25</v>
       </c>
-      <c r="D40" s="64">
+      <c r="D40" s="63">
         <f>G40*C40</f>
         <v>125000</v>
       </c>
-      <c r="F40" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="68">
+      <c r="F40" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="67">
         <f>C8</f>
         <v>500000</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64">
+      <c r="A41" s="63"/>
+      <c r="B41" s="63">
         <v>8</v>
       </c>
-      <c r="C41" s="64">
+      <c r="C41" s="63">
         <v>0.35</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="63">
         <f>G40*C41</f>
         <v>175000</v>
       </c>
-      <c r="F41" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="68">
+      <c r="F41" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="67">
         <f>SUM(C38:C41)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="64">
+      <c r="A42" s="63">
         <v>2</v>
       </c>
-      <c r="B42" s="64">
+      <c r="B42" s="63">
         <v>9</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="63">
         <v>0.15</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="63">
         <f>G44*C42</f>
         <v>90000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64">
+      <c r="A43" s="63"/>
+      <c r="B43" s="63">
         <v>10</v>
       </c>
-      <c r="C43" s="64">
+      <c r="C43" s="63">
         <v>0.25</v>
       </c>
-      <c r="D43" s="64">
+      <c r="D43" s="63">
         <f>G44*C43</f>
         <v>150000</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64">
+      <c r="A44" s="63"/>
+      <c r="B44" s="63">
         <v>11</v>
       </c>
-      <c r="C44" s="64">
+      <c r="C44" s="63">
         <v>0.25</v>
       </c>
-      <c r="D44" s="64">
+      <c r="D44" s="63">
         <f>G44*C44</f>
         <v>150000</v>
       </c>
-      <c r="F44" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="67">
+      <c r="F44" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="66">
         <f>C9</f>
         <v>600000</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64">
+      <c r="A45" s="63"/>
+      <c r="B45" s="63">
         <v>12</v>
       </c>
-      <c r="C45" s="64">
+      <c r="C45" s="63">
         <v>0.35</v>
       </c>
-      <c r="D45" s="64">
+      <c r="D45" s="63">
         <f>G44*C45</f>
         <v>210000</v>
       </c>
-      <c r="F45" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="67">
+      <c r="F45" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="66">
         <f>SUM(C42:C45)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="64" t="s">
+      <c r="A48" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="64" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="64">
+      <c r="A49" s="63">
         <v>2</v>
       </c>
-      <c r="B49" s="64">
+      <c r="B49" s="63">
         <v>1</v>
       </c>
-      <c r="C49" s="64">
+      <c r="C49" s="63">
         <v>0.15</v>
       </c>
-      <c r="D49" s="64">
+      <c r="D49" s="63">
         <f>G51*C49</f>
         <v>90000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="64"/>
-      <c r="B50" s="64">
+      <c r="A50" s="63"/>
+      <c r="B50" s="63">
         <v>2</v>
       </c>
-      <c r="C50" s="64">
+      <c r="C50" s="63">
         <v>0.23</v>
       </c>
-      <c r="D50" s="64">
+      <c r="D50" s="63">
         <f>G51*C50</f>
         <v>138000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64">
+      <c r="A51" s="63"/>
+      <c r="B51" s="63">
         <v>3</v>
       </c>
-      <c r="C51" s="64">
+      <c r="C51" s="63">
         <v>0.27</v>
       </c>
-      <c r="D51" s="64">
+      <c r="D51" s="63">
         <f>G51*C51</f>
         <v>162000</v>
       </c>
-      <c r="F51" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="69">
+      <c r="F51" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="68">
         <f>C9</f>
         <v>600000</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64">
+      <c r="A52" s="63"/>
+      <c r="B52" s="63">
         <v>4</v>
       </c>
-      <c r="C52" s="64">
+      <c r="C52" s="63">
         <v>0.35</v>
       </c>
-      <c r="D52" s="64">
+      <c r="D52" s="63">
         <f>G51*C52</f>
         <v>210000</v>
       </c>
-      <c r="F52" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" s="69">
+      <c r="F52" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="68">
         <f>SUM(C49:C52)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="64">
+      <c r="A53" s="63">
         <v>2.5</v>
       </c>
-      <c r="B53" s="64">
+      <c r="B53" s="63">
         <v>5</v>
       </c>
-      <c r="C53" s="64">
+      <c r="C53" s="63">
         <v>0.15</v>
       </c>
-      <c r="D53" s="64">
+      <c r="D53" s="63">
         <f>G55*C53</f>
         <v>135000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64">
+      <c r="A54" s="63"/>
+      <c r="B54" s="63">
         <v>6</v>
       </c>
-      <c r="C54" s="64">
+      <c r="C54" s="63">
         <v>0.25</v>
       </c>
-      <c r="D54" s="64">
+      <c r="D54" s="63">
         <f>G55*C54</f>
         <v>225000</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="64"/>
-      <c r="B55" s="64">
+      <c r="A55" s="63"/>
+      <c r="B55" s="63">
         <v>7</v>
       </c>
-      <c r="C55" s="64">
+      <c r="C55" s="63">
         <v>0.25</v>
       </c>
-      <c r="D55" s="64">
+      <c r="D55" s="63">
         <f>G55*C55</f>
         <v>225000</v>
       </c>
-      <c r="F55" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="G55" s="68">
+      <c r="F55" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="67">
         <f>C10</f>
         <v>900000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64">
+      <c r="A56" s="63"/>
+      <c r="B56" s="63">
         <v>8</v>
       </c>
-      <c r="C56" s="64">
+      <c r="C56" s="63">
         <v>0.35</v>
       </c>
-      <c r="D56" s="64">
+      <c r="D56" s="63">
         <f>G55*C56</f>
         <v>315000</v>
       </c>
-      <c r="F56" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" s="68">
+      <c r="F56" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="67">
         <f>SUM(C53:C56)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="64">
+      <c r="A57" s="63">
         <v>3</v>
       </c>
-      <c r="B57" s="64">
+      <c r="B57" s="63">
         <v>9</v>
       </c>
-      <c r="C57" s="64">
+      <c r="C57" s="63">
         <v>0.15</v>
       </c>
-      <c r="D57" s="64">
+      <c r="D57" s="63">
         <f>G59*C57</f>
         <v>150000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64">
+      <c r="A58" s="63"/>
+      <c r="B58" s="63">
         <v>10</v>
       </c>
-      <c r="C58" s="64">
+      <c r="C58" s="63">
         <v>0.25</v>
       </c>
-      <c r="D58" s="64">
+      <c r="D58" s="63">
         <f>G59*C58</f>
         <v>250000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="64"/>
-      <c r="B59" s="64">
+      <c r="A59" s="63"/>
+      <c r="B59" s="63">
         <v>11</v>
       </c>
-      <c r="C59" s="64">
+      <c r="C59" s="63">
         <v>0.25</v>
       </c>
-      <c r="D59" s="64">
+      <c r="D59" s="63">
         <f>G59*C59</f>
         <v>250000</v>
       </c>
-      <c r="F59" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="67">
+      <c r="F59" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="66">
         <f>C11</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64">
+      <c r="A60" s="63"/>
+      <c r="B60" s="63">
         <v>12</v>
       </c>
-      <c r="C60" s="64">
+      <c r="C60" s="63">
         <v>0.35</v>
       </c>
-      <c r="D60" s="64">
+      <c r="D60" s="63">
         <f>G59*C60</f>
         <v>350000</v>
       </c>
-      <c r="F60" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" s="67">
+      <c r="F60" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="66">
         <f>SUM(C57:C60)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="64" t="s">
+      <c r="A63" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="64" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="64">
+      <c r="A64" s="63">
         <v>3</v>
       </c>
-      <c r="B64" s="64">
+      <c r="B64" s="63">
         <v>1</v>
       </c>
-      <c r="C64" s="64">
+      <c r="C64" s="63">
         <v>0.15</v>
       </c>
-      <c r="D64" s="64">
+      <c r="D64" s="63">
         <f>G66*C64</f>
         <v>150000</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64">
+      <c r="A65" s="63"/>
+      <c r="B65" s="63">
         <v>2</v>
       </c>
-      <c r="C65" s="64">
+      <c r="C65" s="63">
         <v>0.23</v>
       </c>
-      <c r="D65" s="64">
+      <c r="D65" s="63">
         <f>G66*C65</f>
         <v>230000</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64">
+      <c r="A66" s="63"/>
+      <c r="B66" s="63">
         <v>3</v>
       </c>
-      <c r="C66" s="64">
+      <c r="C66" s="63">
         <v>0.27</v>
       </c>
-      <c r="D66" s="64">
+      <c r="D66" s="63">
         <f>G66*C66</f>
         <v>270000</v>
       </c>
-      <c r="F66" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="G66" s="69">
+      <c r="F66" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="68">
         <f>C11</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64">
+      <c r="A67" s="63"/>
+      <c r="B67" s="63">
         <v>4</v>
       </c>
-      <c r="C67" s="64">
+      <c r="C67" s="63">
         <v>0.35</v>
       </c>
-      <c r="D67" s="64">
+      <c r="D67" s="63">
         <f>G66*C67</f>
         <v>350000</v>
       </c>
-      <c r="F67" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="G67" s="69">
+      <c r="F67" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="68">
         <f>SUM(C64:C67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="64">
+      <c r="A68" s="63">
         <v>3.5</v>
       </c>
-      <c r="B68" s="64">
+      <c r="B68" s="63">
         <v>5</v>
       </c>
-      <c r="C68" s="64">
+      <c r="C68" s="63">
         <v>0.15</v>
       </c>
-      <c r="D68" s="64">
+      <c r="D68" s="63">
         <f>G70*C68</f>
         <v>187500</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64">
+      <c r="A69" s="63"/>
+      <c r="B69" s="63">
         <v>6</v>
       </c>
-      <c r="C69" s="64">
+      <c r="C69" s="63">
         <v>0.25</v>
       </c>
-      <c r="D69" s="64">
+      <c r="D69" s="63">
         <f>G70*C69</f>
         <v>312500</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="64"/>
-      <c r="B70" s="64">
+      <c r="A70" s="63"/>
+      <c r="B70" s="63">
         <v>7</v>
       </c>
-      <c r="C70" s="64">
+      <c r="C70" s="63">
         <v>0.25</v>
       </c>
-      <c r="D70" s="64">
+      <c r="D70" s="63">
         <f>G70*C70</f>
         <v>312500</v>
       </c>
-      <c r="F70" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="68">
+      <c r="F70" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="67">
         <f>C12</f>
         <v>1250000</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64">
+      <c r="A71" s="63"/>
+      <c r="B71" s="63">
         <v>8</v>
       </c>
-      <c r="C71" s="64">
+      <c r="C71" s="63">
         <v>0.35</v>
       </c>
-      <c r="D71" s="64">
+      <c r="D71" s="63">
         <f>G70*C71</f>
         <v>437500</v>
       </c>
-      <c r="F71" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="G71" s="68">
+      <c r="F71" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="67">
         <f>SUM(C68:C71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="64">
+      <c r="A72" s="63">
         <v>4</v>
       </c>
-      <c r="B72" s="64">
+      <c r="B72" s="63">
         <v>9</v>
       </c>
-      <c r="C72" s="64">
+      <c r="C72" s="63">
         <v>0.15</v>
       </c>
-      <c r="D72" s="64">
+      <c r="D72" s="63">
         <f>G74*C72</f>
         <v>202500</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="64"/>
-      <c r="B73" s="64">
+      <c r="A73" s="63"/>
+      <c r="B73" s="63">
         <v>10</v>
       </c>
-      <c r="C73" s="64">
+      <c r="C73" s="63">
         <v>0.25</v>
       </c>
-      <c r="D73" s="64">
+      <c r="D73" s="63">
         <f>G74*C73</f>
         <v>337500</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="64"/>
-      <c r="B74" s="64">
+      <c r="A74" s="63"/>
+      <c r="B74" s="63">
         <v>11</v>
       </c>
-      <c r="C74" s="64">
+      <c r="C74" s="63">
         <v>0.25</v>
       </c>
-      <c r="D74" s="64">
+      <c r="D74" s="63">
         <f>G74*C74</f>
         <v>337500</v>
       </c>
-      <c r="F74" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="G74" s="67">
+      <c r="F74" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" s="66">
         <f>C13</f>
         <v>1350000</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="64"/>
-      <c r="B75" s="64">
+      <c r="A75" s="63"/>
+      <c r="B75" s="63">
         <v>12</v>
       </c>
-      <c r="C75" s="64">
+      <c r="C75" s="63">
         <v>0.35</v>
       </c>
-      <c r="D75" s="64">
+      <c r="D75" s="63">
         <f>G74*C75</f>
         <v>472499.99999999994</v>
       </c>
-      <c r="F75" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="G75" s="67">
+      <c r="F75" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="G75" s="66">
         <f>SUM(C72:C75)</f>
         <v>1</v>
       </c>

--- a/Business Plan Documents/YPS Sales Forecast.xlsx
+++ b/Business Plan Documents/YPS Sales Forecast.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="19560" windowHeight="8340" tabRatio="694"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="19560" windowHeight="8340" tabRatio="694"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Forecast (Year 1)" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft</author>
+    <author>Josh</author>
   </authors>
   <commentList>
     <comment ref="B10" authorId="0" shapeId="0">
@@ -39,6 +40,32 @@
             <family val="2"/>
           </rPr>
           <t>Totals are calculated automatically.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pricing is Php100.00, but 30% goes to Operating Expenses of Google</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pricing is Php28.50, but 30% goes to Operating Expenses of Google</t>
         </r>
       </text>
     </comment>
@@ -317,7 +344,7 @@
     <numFmt numFmtId="166" formatCode="yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-3409]dd\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -365,6 +392,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -685,10 +718,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,8 +1007,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -998,7 +1031,7 @@
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="23"/>
@@ -1353,40 +1386,40 @@
         <v>0</v>
       </c>
       <c r="B13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="9"/>
@@ -1401,55 +1434,55 @@
       </c>
       <c r="B14" s="3">
         <f>B12*B13</f>
-        <v>150000</v>
+        <v>105000</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ref="C14:S14" si="3">C12*C13</f>
-        <v>250000</v>
+        <v>175000</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="3"/>
-        <v>250000</v>
+        <v>175000</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="3"/>
-        <v>350000</v>
+        <v>245000</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
-        <v>375000</v>
+        <v>262500</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="3"/>
-        <v>625000</v>
+        <v>437500</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>937500</v>
+        <v>656250</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>1312500</v>
+        <v>918750</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="3"/>
-        <v>900000</v>
+        <v>630000</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="3"/>
-        <v>1500000</v>
+        <v>1050000</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="3"/>
-        <v>1500000</v>
+        <v>1050000</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="3"/>
-        <v>2100000</v>
+        <v>1470000</v>
       </c>
       <c r="N14" s="22">
         <f>SUM(B14:M14)</f>
-        <v>10250000</v>
+        <v>7175000</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="51">
@@ -2385,55 +2418,55 @@
       </c>
       <c r="B36" s="60">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
-        <v>206050</v>
+        <v>161050</v>
       </c>
       <c r="C36" s="60">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
-        <v>343210</v>
+        <v>268210</v>
       </c>
       <c r="D36" s="60">
         <f t="shared" si="15"/>
-        <v>344450</v>
+        <v>269450</v>
       </c>
       <c r="E36" s="60">
         <f t="shared" si="15"/>
-        <v>479750</v>
+        <v>374750</v>
       </c>
       <c r="F36" s="60">
         <f t="shared" si="15"/>
-        <v>514815</v>
+        <v>402315</v>
       </c>
       <c r="G36" s="60">
         <f t="shared" si="15"/>
-        <v>862425</v>
+        <v>674925</v>
       </c>
       <c r="H36" s="60">
         <f t="shared" si="15"/>
-        <v>1237425</v>
+        <v>956175</v>
       </c>
       <c r="I36" s="60">
         <f t="shared" si="15"/>
-        <v>1725675</v>
+        <v>1331925</v>
       </c>
       <c r="J36" s="60">
         <f t="shared" si="15"/>
-        <v>1188600</v>
+        <v>918600</v>
       </c>
       <c r="K36" s="60">
         <f t="shared" si="15"/>
-        <v>1969800</v>
+        <v>1519800</v>
       </c>
       <c r="L36" s="60">
         <f t="shared" si="15"/>
-        <v>1969800</v>
+        <v>1519800</v>
       </c>
       <c r="M36" s="60">
         <f t="shared" si="15"/>
-        <v>2748760</v>
+        <v>2118760</v>
       </c>
       <c r="N36" s="61">
         <f>SUM(B36:M36)</f>
-        <v>13590760</v>
+        <v>10515760</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="51">
@@ -2491,7 +2524,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2514,7 +2547,7 @@
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="23"/>
@@ -2869,40 +2902,40 @@
         <v>0</v>
       </c>
       <c r="B13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="9"/>
@@ -2917,55 +2950,55 @@
       </c>
       <c r="B14" s="3">
         <f>B12*B13</f>
-        <v>600000</v>
+        <v>420000</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ref="C14:S14" si="3">C12*C13</f>
-        <v>920000</v>
+        <v>644000</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="3"/>
-        <v>1080000</v>
+        <v>756000</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="3"/>
-        <v>1400000</v>
+        <v>980000</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
-        <v>750000</v>
+        <v>525000</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="3"/>
-        <v>1250000</v>
+        <v>875000</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>1875000</v>
+        <v>1312500</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>2625000</v>
+        <v>1837500</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="3"/>
-        <v>1350000</v>
+        <v>945000</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="3"/>
-        <v>2250000</v>
+        <v>1575000</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="3"/>
-        <v>2250000</v>
+        <v>1575000</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="3"/>
-        <v>3150000</v>
+        <v>2205000</v>
       </c>
       <c r="N14" s="22">
         <f>SUM(B14:M14)</f>
-        <v>19500000</v>
+        <v>13650000</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="51">
@@ -3901,55 +3934,55 @@
       </c>
       <c r="B36" s="60">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
-        <v>816140</v>
+        <v>636140</v>
       </c>
       <c r="C36" s="60">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
-        <v>1250960</v>
+        <v>974960</v>
       </c>
       <c r="D36" s="60">
         <f t="shared" si="15"/>
-        <v>1468680</v>
+        <v>1144680</v>
       </c>
       <c r="E36" s="60">
         <f t="shared" si="15"/>
-        <v>1901640</v>
+        <v>1481640</v>
       </c>
       <c r="F36" s="60">
         <f t="shared" si="15"/>
-        <v>1023430</v>
+        <v>798430</v>
       </c>
       <c r="G36" s="60">
         <f t="shared" si="15"/>
-        <v>1710290</v>
+        <v>1335290</v>
       </c>
       <c r="H36" s="60">
         <f t="shared" si="15"/>
-        <v>2460290</v>
+        <v>1897790</v>
       </c>
       <c r="I36" s="60">
         <f t="shared" si="15"/>
-        <v>3436790</v>
+        <v>2649290</v>
       </c>
       <c r="J36" s="60">
         <f t="shared" si="15"/>
-        <v>1776740</v>
+        <v>1371740</v>
       </c>
       <c r="K36" s="60">
         <f t="shared" si="15"/>
-        <v>2948540</v>
+        <v>2273540</v>
       </c>
       <c r="L36" s="60">
         <f t="shared" si="15"/>
-        <v>2948540</v>
+        <v>2273540</v>
       </c>
       <c r="M36" s="60">
         <f t="shared" si="15"/>
-        <v>4118100</v>
+        <v>3173100</v>
       </c>
       <c r="N36" s="61">
         <f>SUM(B36:M36)</f>
-        <v>25860140</v>
+        <v>20010140</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="51">
@@ -4006,7 +4039,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4029,7 +4062,7 @@
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="23"/>
@@ -4384,40 +4417,40 @@
         <v>0</v>
       </c>
       <c r="B13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="9"/>
@@ -4432,55 +4465,55 @@
       </c>
       <c r="B14" s="3">
         <f>B12*B13</f>
-        <v>900000</v>
+        <v>630000</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ref="C14:S14" si="3">C12*C13</f>
-        <v>1380000</v>
+        <v>966000</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="3"/>
-        <v>1620000</v>
+        <v>1134000</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="3"/>
-        <v>2100000</v>
+        <v>1470000</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
-        <v>1350000</v>
+        <v>945000</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="3"/>
-        <v>2250000</v>
+        <v>1575000</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>3375000</v>
+        <v>2362500</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>4725000</v>
+        <v>3307500</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="3"/>
-        <v>2250000</v>
+        <v>1575000</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="3"/>
-        <v>3750000</v>
+        <v>2625000</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="3"/>
-        <v>3750000</v>
+        <v>2625000</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="3"/>
-        <v>5250000</v>
+        <v>3675000</v>
       </c>
       <c r="N14" s="22">
         <f>SUM(B14:M14)</f>
-        <v>32700000</v>
+        <v>22890000</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="51">
@@ -5416,55 +5449,55 @@
       </c>
       <c r="B36" s="60">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
-        <v>1223280</v>
+        <v>953280</v>
       </c>
       <c r="C36" s="60">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
-        <v>1874580</v>
+        <v>1460580</v>
       </c>
       <c r="D36" s="60">
         <f t="shared" si="15"/>
-        <v>2200540</v>
+        <v>1714540</v>
       </c>
       <c r="E36" s="60">
         <f t="shared" si="15"/>
-        <v>2930580</v>
+        <v>2300580</v>
       </c>
       <c r="F36" s="60">
         <f t="shared" si="15"/>
-        <v>1836470</v>
+        <v>1431470</v>
       </c>
       <c r="G36" s="60">
         <f t="shared" si="15"/>
-        <v>3065530</v>
+        <v>2390530</v>
       </c>
       <c r="H36" s="60">
         <f t="shared" si="15"/>
-        <v>4415530</v>
+        <v>3403030</v>
       </c>
       <c r="I36" s="60">
         <f t="shared" si="15"/>
-        <v>6173230</v>
+        <v>4755730</v>
       </c>
       <c r="J36" s="60">
         <f t="shared" si="15"/>
-        <v>2950780</v>
+        <v>2275780</v>
       </c>
       <c r="K36" s="60">
         <f t="shared" si="15"/>
-        <v>4903780</v>
+        <v>3778780</v>
       </c>
       <c r="L36" s="60">
         <f t="shared" si="15"/>
-        <v>4903780</v>
+        <v>3778780</v>
       </c>
       <c r="M36" s="60">
         <f t="shared" si="15"/>
-        <v>6854540</v>
+        <v>5279540</v>
       </c>
       <c r="N36" s="61">
         <f>SUM(B36:M36)</f>
-        <v>43332620</v>
+        <v>33522620</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="51">
@@ -5521,7 +5554,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5544,7 +5577,7 @@
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="23"/>
@@ -5899,40 +5932,40 @@
         <v>0</v>
       </c>
       <c r="B13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M13" s="32">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="9"/>
@@ -5947,55 +5980,55 @@
       </c>
       <c r="B14" s="3">
         <f>B12*B13</f>
-        <v>1500000</v>
+        <v>1050000</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ref="C14:S14" si="3">C12*C13</f>
-        <v>2300000</v>
+        <v>1610000</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="3"/>
-        <v>2700000</v>
+        <v>1890000</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="3"/>
-        <v>3500000</v>
+        <v>2450000</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="3"/>
-        <v>1875000</v>
+        <v>1312500</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="3"/>
-        <v>3125000</v>
+        <v>2187500</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>4687500</v>
+        <v>3281250</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>6562500</v>
+        <v>4593750</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="3"/>
-        <v>3037500</v>
+        <v>2126250</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="3"/>
-        <v>5062500</v>
+        <v>3543750</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="3"/>
-        <v>5062500</v>
+        <v>3543750</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="3"/>
-        <v>7087499.9999999981</v>
+        <v>4961249.9999999991</v>
       </c>
       <c r="N14" s="22">
         <f>SUM(B14:M14)</f>
-        <v>46500000</v>
+        <v>32550000</v>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="51">
@@ -6931,55 +6964,55 @@
       </c>
       <c r="B36" s="60">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
-        <v>2036320</v>
+        <v>1586320</v>
       </c>
       <c r="C36" s="60">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
-        <v>3120580</v>
+        <v>2430580</v>
       </c>
       <c r="D36" s="60">
         <f t="shared" si="15"/>
-        <v>3663020</v>
+        <v>2853020</v>
       </c>
       <c r="E36" s="60">
         <f t="shared" si="15"/>
-        <v>4745420</v>
+        <v>3695420</v>
       </c>
       <c r="F36" s="60">
         <f t="shared" si="15"/>
-        <v>2548035</v>
+        <v>1985535</v>
       </c>
       <c r="G36" s="60">
         <f t="shared" si="15"/>
-        <v>4251645</v>
+        <v>3314145</v>
       </c>
       <c r="H36" s="60">
         <f t="shared" si="15"/>
-        <v>6126645</v>
+        <v>4720395</v>
       </c>
       <c r="I36" s="60">
         <f t="shared" si="15"/>
-        <v>8567895</v>
+        <v>6599145</v>
       </c>
       <c r="J36" s="60">
         <f t="shared" si="15"/>
-        <v>3978345</v>
+        <v>3067095</v>
       </c>
       <c r="K36" s="60">
         <f t="shared" si="15"/>
-        <v>6614895</v>
+        <v>5096145</v>
       </c>
       <c r="L36" s="60">
         <f t="shared" si="15"/>
-        <v>6614895</v>
+        <v>5096145</v>
       </c>
       <c r="M36" s="60">
         <f t="shared" si="15"/>
-        <v>9249204.9999999981</v>
+        <v>7122954.9999999991</v>
       </c>
       <c r="N36" s="61">
         <f>SUM(B36:M36)</f>
-        <v>61516900</v>
+        <v>47566900</v>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="51">
@@ -7051,10 +7084,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="65">
         <v>5000000</v>
       </c>

--- a/Business Plan Documents/YPS Sales Forecast.xlsx
+++ b/Business Plan Documents/YPS Sales Forecast.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="19560" windowHeight="8340" tabRatio="694"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="19560" windowHeight="8340" tabRatio="694" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Forecast (Year 1)" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="63">
   <si>
     <t>Sale price @ unit</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Bridge Mobile Phils, Inc.</t>
+  </si>
+  <si>
+    <t>Fiscal Year Ends</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -581,7 +584,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1007,8 +1009,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1019,7 @@
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="8.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="22" customWidth="1"/>
     <col min="15" max="15" width="1.85546875" style="8" customWidth="1"/>
     <col min="16" max="19" width="8.42578125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="8"/>
@@ -1027,38 +1029,42 @@
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="23"/>
+      <c r="N1" s="22"/>
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
-      <c r="N3" s="23"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="68">
         <v>42156</v>
       </c>
-      <c r="N4" s="23"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="68">
+        <v>42521</v>
+      </c>
       <c r="H5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="8"/>
       <c r="Q5" s="14" t="s">
         <v>11</v>
@@ -1066,63 +1072,63 @@
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="N6" s="23"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:19" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="1:19" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="47" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="47">
         <f>DATE(YEAR(C4)-1,1,1)</f>
         <v>41640</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="47">
         <f>DATE(YEAR(C4)-2,1,1)</f>
         <v>41275</v>
       </c>
-      <c r="S7" s="48">
+      <c r="S7" s="47">
         <f>DATE(YEAR(C4)-3,1,1)</f>
         <v>40909</v>
       </c>
@@ -1167,62 +1173,62 @@
       <c r="M8" s="5">
         <v>140000</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="23">
         <f>SUM(B8:M8)</f>
         <v>750000</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="49"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>0.53</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>0.53</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.53</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>0.53</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>0.53</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>0.53</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>0.53</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>0.53</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="31">
         <v>0.53</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <v>0.53</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="31">
         <v>0.53</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <v>0.53</v>
       </c>
-      <c r="N9" s="33"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
@@ -1276,24 +1282,24 @@
         <f t="shared" si="0"/>
         <v>74200</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <f>SUM(B10:M10)</f>
         <v>397500</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="51">
+      <c r="P10" s="50">
         <f>P8*P9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="51">
+      <c r="S10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1312,12 +1318,12 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="25"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="53"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -1371,62 +1377,62 @@
         <f t="shared" si="2"/>
         <v>21000</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="23">
         <f>SUM(B12:M12)</f>
         <v>102500</v>
       </c>
       <c r="O12" s="16"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>70</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>70</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>70</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>70</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>70</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="31">
         <v>70</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>70</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>70</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>70</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <v>70</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="31">
         <v>70</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="31">
         <v>70</v>
       </c>
-      <c r="N13" s="33"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
     </row>
     <row r="14" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -1480,24 +1486,24 @@
         <f t="shared" si="3"/>
         <v>1470000</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="21">
         <f>SUM(B14:M14)</f>
         <v>7175000</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="51">
+      <c r="P14" s="50">
         <f>P12*P13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="42">
+      <c r="S14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1516,12 +1522,12 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="25"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="53"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
@@ -1563,63 +1569,63 @@
       <c r="M16" s="6">
         <v>13</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="23">
         <f>SUM(B16:M16)</f>
         <v>148</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>500</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>500</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>500</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>500</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>500</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <v>1000</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>1000</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <v>1000</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="31">
         <v>1000</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <v>1000</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="31">
         <v>1000</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="31">
         <v>1000</v>
       </c>
-      <c r="N17" s="33"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="34"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="33"/>
     </row>
     <row r="18" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
@@ -1673,24 +1679,24 @@
         <f t="shared" si="4"/>
         <v>13000</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <f>SUM(B18:M18)</f>
         <v>125500</v>
       </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="51">
+      <c r="P18" s="50">
         <f>P16*P17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="41">
         <f t="shared" ref="Q18:S18" si="5">Q16*Q17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="42">
+      <c r="S18" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1709,12 +1715,12 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="25"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="53"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
@@ -1768,62 +1774,62 @@
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="23">
         <f>SUM(B20:M20)</f>
         <v>59.2</v>
       </c>
       <c r="O20" s="16"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
     </row>
     <row r="21" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>300</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>300</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>300</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <v>300</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>300</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <v>300</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="31">
         <v>300</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="31">
         <v>300</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="31">
         <v>300</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="31">
         <v>300</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="31">
         <v>300</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="31">
         <v>300</v>
       </c>
-      <c r="N21" s="33"/>
+      <c r="N21" s="32"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
@@ -1877,24 +1883,24 @@
         <f t="shared" si="7"/>
         <v>1560</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <f>SUM(B22:M22)</f>
         <v>17760</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="51">
+      <c r="P22" s="50">
         <f>P20*P21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="41">
         <f t="shared" ref="Q22:S22" si="8">Q20*Q21</f>
         <v>0</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="42">
+      <c r="S22" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1913,12 +1919,12 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="25"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="53"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -1972,62 +1978,62 @@
         <f t="shared" si="10"/>
         <v>28000</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="23">
         <f>SUM(B24:M24)</f>
         <v>140000</v>
       </c>
       <c r="O24" s="16"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>20</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <v>20</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <v>20</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <v>20</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <v>20</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="31">
         <v>20</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="31">
         <v>20</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="31">
         <v>20</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="31">
         <v>20</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="31">
         <v>20</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="31">
         <v>20</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
         <v>20</v>
       </c>
-      <c r="N25" s="33"/>
+      <c r="N25" s="32"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -2081,24 +2087,24 @@
         <f t="shared" si="11"/>
         <v>560000</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="21">
         <f>SUM(B26:M26)</f>
         <v>2800000</v>
       </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="51">
+      <c r="P26" s="50">
         <f>P24*P25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S26" s="42">
+      <c r="S26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2117,276 +2123,276 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="25"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="53"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37">
         <f>SUM(B28:M28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="16"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
+      <c r="A29" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="41">
         <f>B28*B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <f t="shared" ref="C30:M30" si="12">C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="42">
         <f>SUM(B30:M30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="51">
+      <c r="P30" s="50">
         <f>P28*P29</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="41">
         <f t="shared" ref="Q30:S30" si="13">Q28*Q29</f>
         <v>0</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S30" s="42">
+      <c r="S30" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="46"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="53"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="52"/>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37">
         <f>SUM(B32:M32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="16"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
+      <c r="A33" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="39"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="41">
         <f t="shared" ref="B34:M34" si="14">B32*B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="42">
         <f>SUM(B34:M34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="51">
+      <c r="P34" s="50">
         <f>P32*P33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="42">
+      <c r="Q34" s="41">
         <f>Q32*Q33</f>
         <v>0</v>
       </c>
-      <c r="R34" s="42">
+      <c r="R34" s="41">
         <f>R32*R33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="42">
+      <c r="S34" s="41">
         <f>S32*S33</f>
         <v>0</v>
       </c>
@@ -2405,83 +2411,83 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="26"/>
+      <c r="N35" s="25"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="57"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="56"/>
     </row>
     <row r="36" spans="1:19" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="60">
+      <c r="B36" s="59">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
         <v>161050</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="59">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
         <v>268210</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="59">
         <f t="shared" si="15"/>
         <v>269450</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="59">
         <f t="shared" si="15"/>
         <v>374750</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="59">
         <f t="shared" si="15"/>
         <v>402315</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="59">
         <f t="shared" si="15"/>
         <v>674925</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <f t="shared" si="15"/>
         <v>956175</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="59">
         <f t="shared" si="15"/>
         <v>1331925</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="59">
         <f t="shared" si="15"/>
         <v>918600</v>
       </c>
-      <c r="K36" s="60">
+      <c r="K36" s="59">
         <f t="shared" si="15"/>
         <v>1519800</v>
       </c>
-      <c r="L36" s="60">
+      <c r="L36" s="59">
         <f t="shared" si="15"/>
         <v>1519800</v>
       </c>
-      <c r="M36" s="60">
+      <c r="M36" s="59">
         <f t="shared" si="15"/>
         <v>2118760</v>
       </c>
-      <c r="N36" s="61">
+      <c r="N36" s="60">
         <f>SUM(B36:M36)</f>
         <v>10515760</v>
       </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="51">
+      <c r="P36" s="50">
         <f>(P10+P14+P18+P22+P26+P30+P34)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36" s="50">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R36" s="58">
+      <c r="R36" s="57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S36" s="58">
+      <c r="S36" s="57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -2500,7 +2506,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="27"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="17"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -2523,8 +2529,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:M13"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2533,7 +2539,7 @@
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="8.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="22" customWidth="1"/>
     <col min="15" max="15" width="1.85546875" style="8" customWidth="1"/>
     <col min="16" max="19" width="8.42578125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="8"/>
@@ -2543,38 +2549,42 @@
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="23"/>
+      <c r="N1" s="22"/>
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
-      <c r="N3" s="23"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="69">
-        <v>42156</v>
-      </c>
-      <c r="N4" s="23"/>
+      <c r="C4" s="68">
+        <v>42522</v>
+      </c>
+      <c r="N4" s="22"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="68">
+        <v>42886</v>
+      </c>
       <c r="H5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="8"/>
       <c r="Q5" s="14" t="s">
         <v>11</v>
@@ -2582,65 +2592,65 @@
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="N6" s="23"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:19" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="1:19" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="47" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="47">
         <f>DATE(YEAR(C4)-1,1,1)</f>
+        <v>42005</v>
+      </c>
+      <c r="R7" s="47">
+        <f>DATE(YEAR(C4)-2,1,1)</f>
         <v>41640</v>
       </c>
-      <c r="R7" s="48">
-        <f>DATE(YEAR(C4)-2,1,1)</f>
+      <c r="S7" s="47">
+        <f>DATE(YEAR(C4)-3,1,1)</f>
         <v>41275</v>
-      </c>
-      <c r="S7" s="48">
-        <f>DATE(YEAR(C4)-3,1,1)</f>
-        <v>40909</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2683,62 +2693,62 @@
       <c r="M8" s="5">
         <v>210000</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="23">
         <f>SUM(B8:M8)</f>
         <v>1500000</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="49"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>0.53</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>0.53</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.53</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>0.53</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>0.53</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>0.53</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>0.53</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>0.53</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="31">
         <v>0.53</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <v>0.53</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="31">
         <v>0.53</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <v>0.53</v>
       </c>
-      <c r="N9" s="33"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
@@ -2792,24 +2802,24 @@
         <f t="shared" si="0"/>
         <v>111300</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <f>SUM(B10:M10)</f>
         <v>795000</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="51">
+      <c r="P10" s="50">
         <f>P8*P9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="51">
+      <c r="S10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2828,12 +2838,12 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="25"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="53"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -2887,62 +2897,62 @@
         <f t="shared" si="2"/>
         <v>31500</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="23">
         <f>SUM(B12:M12)</f>
         <v>195000</v>
       </c>
       <c r="O12" s="16"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>70</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>70</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>70</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>70</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>70</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="31">
         <v>70</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>70</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>70</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>70</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <v>70</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="31">
         <v>70</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="31">
         <v>70</v>
       </c>
-      <c r="N13" s="33"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
     </row>
     <row r="14" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -2996,24 +3006,24 @@
         <f t="shared" si="3"/>
         <v>2205000</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="21">
         <f>SUM(B14:M14)</f>
         <v>13650000</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="51">
+      <c r="P14" s="50">
         <f>P12*P13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="42">
+      <c r="S14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3032,12 +3042,12 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="25"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="53"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
@@ -3079,63 +3089,63 @@
       <c r="M16" s="6">
         <v>15</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="23">
         <f>SUM(B16:M16)</f>
         <v>172</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>500</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>500</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>500</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>500</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>500</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <v>1000</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>1000</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <v>1000</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="31">
         <v>1000</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <v>1000</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="31">
         <v>1000</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="31">
         <v>1000</v>
       </c>
-      <c r="N17" s="33"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="34"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="33"/>
     </row>
     <row r="18" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
@@ -3189,24 +3199,24 @@
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <f>SUM(B18:M18)</f>
         <v>144500</v>
       </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="51">
+      <c r="P18" s="50">
         <f>P16*P17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="41">
         <f t="shared" ref="Q18:S18" si="5">Q16*Q17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="42">
+      <c r="S18" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3225,12 +3235,12 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="25"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="53"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
@@ -3284,62 +3294,62 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="23">
         <f>SUM(B20:M20)</f>
         <v>68.8</v>
       </c>
       <c r="O20" s="16"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
     </row>
     <row r="21" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>300</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>300</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>300</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <v>300</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>300</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <v>300</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="31">
         <v>300</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="31">
         <v>300</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="31">
         <v>300</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="31">
         <v>300</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="31">
         <v>300</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="31">
         <v>300</v>
       </c>
-      <c r="N21" s="33"/>
+      <c r="N21" s="32"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
@@ -3393,24 +3403,24 @@
         <f t="shared" si="7"/>
         <v>1800</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <f>SUM(B22:M22)</f>
         <v>20640</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="51">
+      <c r="P22" s="50">
         <f>P20*P21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="41">
         <f t="shared" ref="Q22:S22" si="8">Q20*Q21</f>
         <v>0</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="42">
+      <c r="S22" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3429,12 +3439,12 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="25"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="53"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -3488,62 +3498,62 @@
         <f t="shared" si="10"/>
         <v>42000</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="23">
         <f>SUM(B24:M24)</f>
         <v>270000</v>
       </c>
       <c r="O24" s="16"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>20</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <v>20</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <v>20</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <v>20</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <v>20</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="31">
         <v>20</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="31">
         <v>20</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="31">
         <v>20</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="31">
         <v>20</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="31">
         <v>20</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="31">
         <v>20</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
         <v>20</v>
       </c>
-      <c r="N25" s="33"/>
+      <c r="N25" s="32"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -3597,24 +3607,24 @@
         <f t="shared" si="11"/>
         <v>840000</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="21">
         <f>SUM(B26:M26)</f>
         <v>5400000</v>
       </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="51">
+      <c r="P26" s="50">
         <f>P24*P25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S26" s="42">
+      <c r="S26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3633,276 +3643,276 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="25"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="53"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37">
         <f>SUM(B28:M28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="16"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
+      <c r="A29" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="41">
         <f>B28*B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <f t="shared" ref="C30:M30" si="12">C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="42">
         <f>SUM(B30:M30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="51">
+      <c r="P30" s="50">
         <f>P28*P29</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="41">
         <f t="shared" ref="Q30:S30" si="13">Q28*Q29</f>
         <v>0</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S30" s="42">
+      <c r="S30" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="46"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="53"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="52"/>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37">
         <f>SUM(B32:M32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="16"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
+      <c r="A33" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="39"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="41">
         <f t="shared" ref="B34:M34" si="14">B32*B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="42">
         <f>SUM(B34:M34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="51">
+      <c r="P34" s="50">
         <f>P32*P33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="42">
+      <c r="Q34" s="41">
         <f>Q32*Q33</f>
         <v>0</v>
       </c>
-      <c r="R34" s="42">
+      <c r="R34" s="41">
         <f>R32*R33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="42">
+      <c r="S34" s="41">
         <f>S32*S33</f>
         <v>0</v>
       </c>
@@ -3921,83 +3931,83 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="26"/>
+      <c r="N35" s="25"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="57"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="56"/>
     </row>
     <row r="36" spans="1:19" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="60">
+      <c r="B36" s="59">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
         <v>636140</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="59">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
         <v>974960</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="59">
         <f t="shared" si="15"/>
         <v>1144680</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="59">
         <f t="shared" si="15"/>
         <v>1481640</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="59">
         <f t="shared" si="15"/>
         <v>798430</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="59">
         <f t="shared" si="15"/>
         <v>1335290</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <f t="shared" si="15"/>
         <v>1897790</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="59">
         <f t="shared" si="15"/>
         <v>2649290</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="59">
         <f t="shared" si="15"/>
         <v>1371740</v>
       </c>
-      <c r="K36" s="60">
+      <c r="K36" s="59">
         <f t="shared" si="15"/>
         <v>2273540</v>
       </c>
-      <c r="L36" s="60">
+      <c r="L36" s="59">
         <f t="shared" si="15"/>
         <v>2273540</v>
       </c>
-      <c r="M36" s="60">
+      <c r="M36" s="59">
         <f t="shared" si="15"/>
         <v>3173100</v>
       </c>
-      <c r="N36" s="61">
+      <c r="N36" s="60">
         <f>SUM(B36:M36)</f>
         <v>20010140</v>
       </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="51">
+      <c r="P36" s="50">
         <f>(P10+P14+P18+P22+P26+P30+P34)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36" s="50">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R36" s="58">
+      <c r="R36" s="57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S36" s="58">
+      <c r="S36" s="57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -4016,7 +4026,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="27"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="17"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -4039,7 +4049,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:M13"/>
+      <selection activeCell="C5" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4048,7 +4058,7 @@
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="8.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="22" customWidth="1"/>
     <col min="15" max="15" width="1.85546875" style="8" customWidth="1"/>
     <col min="16" max="19" width="8.42578125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="8"/>
@@ -4058,38 +4068,42 @@
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="23"/>
+      <c r="N1" s="22"/>
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
-      <c r="N3" s="23"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="69">
-        <v>42156</v>
-      </c>
-      <c r="N4" s="23"/>
+      <c r="C4" s="68">
+        <v>42887</v>
+      </c>
+      <c r="N4" s="22"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="68">
+        <v>43251</v>
+      </c>
       <c r="H5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="8"/>
       <c r="Q5" s="14" t="s">
         <v>11</v>
@@ -4097,65 +4111,65 @@
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="N6" s="23"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:19" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="1:19" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="47" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="47">
         <f>DATE(YEAR(C4)-1,1,1)</f>
+        <v>42370</v>
+      </c>
+      <c r="R7" s="47">
+        <f>DATE(YEAR(C4)-2,1,1)</f>
+        <v>42005</v>
+      </c>
+      <c r="S7" s="47">
+        <f>DATE(YEAR(C4)-3,1,1)</f>
         <v>41640</v>
-      </c>
-      <c r="R7" s="48">
-        <f>DATE(YEAR(C4)-2,1,1)</f>
-        <v>41275</v>
-      </c>
-      <c r="S7" s="48">
-        <f>DATE(YEAR(C4)-3,1,1)</f>
-        <v>40909</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4198,62 +4212,62 @@
       <c r="M8" s="5">
         <v>350000</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="23">
         <f>SUM(B8:M8)</f>
         <v>2500000</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="49"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>0.53</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>0.53</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.53</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>0.53</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>0.53</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>0.53</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>0.53</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>0.53</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="31">
         <v>0.53</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <v>0.53</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="31">
         <v>0.53</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <v>0.53</v>
       </c>
-      <c r="N9" s="33"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
@@ -4307,24 +4321,24 @@
         <f t="shared" si="0"/>
         <v>185500</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <f>SUM(B10:M10)</f>
         <v>1325000</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="51">
+      <c r="P10" s="50">
         <f>P8*P9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="51">
+      <c r="S10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4343,12 +4357,12 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="25"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="53"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -4402,62 +4416,62 @@
         <f t="shared" si="2"/>
         <v>52500</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="23">
         <f>SUM(B12:M12)</f>
         <v>327000</v>
       </c>
       <c r="O12" s="16"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>70</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>70</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>70</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>70</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>70</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="31">
         <v>70</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>70</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>70</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>70</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <v>70</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="31">
         <v>70</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="31">
         <v>70</v>
       </c>
-      <c r="N13" s="33"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
     </row>
     <row r="14" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -4511,24 +4525,24 @@
         <f t="shared" si="3"/>
         <v>3675000</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="21">
         <f>SUM(B14:M14)</f>
         <v>22890000</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="51">
+      <c r="P14" s="50">
         <f>P12*P13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="42">
+      <c r="S14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4547,12 +4561,12 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="25"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="53"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
@@ -4594,63 +4608,63 @@
       <c r="M16" s="6">
         <v>17</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="23">
         <f>SUM(B16:M16)</f>
         <v>326</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>500</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>500</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>500</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>500</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>500</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <v>1000</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>1000</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <v>1000</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="31">
         <v>1000</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <v>1000</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="31">
         <v>1000</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="31">
         <v>1000</v>
       </c>
-      <c r="N17" s="33"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="34"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="33"/>
     </row>
     <row r="18" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
@@ -4704,24 +4718,24 @@
         <f t="shared" si="4"/>
         <v>17000</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <f>SUM(B18:M18)</f>
         <v>228500</v>
       </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="51">
+      <c r="P18" s="50">
         <f>P16*P17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="41">
         <f t="shared" ref="Q18:S18" si="5">Q16*Q17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="42">
+      <c r="S18" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4740,12 +4754,12 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="25"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="53"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
@@ -4799,62 +4813,62 @@
         <f t="shared" si="6"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="23">
         <f>SUM(B20:M20)</f>
         <v>130.39999999999998</v>
       </c>
       <c r="O20" s="16"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
     </row>
     <row r="21" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>300</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>300</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>300</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <v>300</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>300</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <v>300</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="31">
         <v>300</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="31">
         <v>300</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="31">
         <v>300</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="31">
         <v>300</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="31">
         <v>300</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="31">
         <v>300</v>
       </c>
-      <c r="N21" s="33"/>
+      <c r="N21" s="32"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
@@ -4908,24 +4922,24 @@
         <f t="shared" si="7"/>
         <v>2040.0000000000002</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <f>SUM(B22:M22)</f>
         <v>39120</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="51">
+      <c r="P22" s="50">
         <f>P20*P21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="41">
         <f t="shared" ref="Q22:S22" si="8">Q20*Q21</f>
         <v>0</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="42">
+      <c r="S22" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4944,12 +4958,12 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="25"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="53"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -5003,62 +5017,62 @@
         <f t="shared" si="10"/>
         <v>70000</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="23">
         <f>SUM(B24:M24)</f>
         <v>452000</v>
       </c>
       <c r="O24" s="16"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>20</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <v>20</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <v>20</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <v>20</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <v>20</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="31">
         <v>20</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="31">
         <v>20</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="31">
         <v>20</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="31">
         <v>20</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="31">
         <v>20</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="31">
         <v>20</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
         <v>20</v>
       </c>
-      <c r="N25" s="33"/>
+      <c r="N25" s="32"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -5112,24 +5126,24 @@
         <f t="shared" si="11"/>
         <v>1400000</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="21">
         <f>SUM(B26:M26)</f>
         <v>9040000</v>
       </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="51">
+      <c r="P26" s="50">
         <f>P24*P25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S26" s="42">
+      <c r="S26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5148,276 +5162,276 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="25"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="53"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37">
         <f>SUM(B28:M28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="16"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
+      <c r="A29" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="41">
         <f>B28*B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <f t="shared" ref="C30:M30" si="12">C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="42">
         <f>SUM(B30:M30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="51">
+      <c r="P30" s="50">
         <f>P28*P29</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="41">
         <f t="shared" ref="Q30:S30" si="13">Q28*Q29</f>
         <v>0</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S30" s="42">
+      <c r="S30" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="46"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="53"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="52"/>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37">
         <f>SUM(B32:M32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="16"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
+      <c r="A33" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="39"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="41">
         <f t="shared" ref="B34:M34" si="14">B32*B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="42">
         <f>SUM(B34:M34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="51">
+      <c r="P34" s="50">
         <f>P32*P33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="42">
+      <c r="Q34" s="41">
         <f>Q32*Q33</f>
         <v>0</v>
       </c>
-      <c r="R34" s="42">
+      <c r="R34" s="41">
         <f>R32*R33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="42">
+      <c r="S34" s="41">
         <f>S32*S33</f>
         <v>0</v>
       </c>
@@ -5436,83 +5450,83 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="26"/>
+      <c r="N35" s="25"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="57"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="56"/>
     </row>
     <row r="36" spans="1:19" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="60">
+      <c r="B36" s="59">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
         <v>953280</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="59">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
         <v>1460580</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="59">
         <f t="shared" si="15"/>
         <v>1714540</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="59">
         <f t="shared" si="15"/>
         <v>2300580</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="59">
         <f t="shared" si="15"/>
         <v>1431470</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="59">
         <f t="shared" si="15"/>
         <v>2390530</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <f t="shared" si="15"/>
         <v>3403030</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="59">
         <f t="shared" si="15"/>
         <v>4755730</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="59">
         <f t="shared" si="15"/>
         <v>2275780</v>
       </c>
-      <c r="K36" s="60">
+      <c r="K36" s="59">
         <f t="shared" si="15"/>
         <v>3778780</v>
       </c>
-      <c r="L36" s="60">
+      <c r="L36" s="59">
         <f t="shared" si="15"/>
         <v>3778780</v>
       </c>
-      <c r="M36" s="60">
+      <c r="M36" s="59">
         <f t="shared" si="15"/>
         <v>5279540</v>
       </c>
-      <c r="N36" s="61">
+      <c r="N36" s="60">
         <f>SUM(B36:M36)</f>
         <v>33522620</v>
       </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="51">
+      <c r="P36" s="50">
         <f>(P10+P14+P18+P22+P26+P30+P34)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36" s="50">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R36" s="58">
+      <c r="R36" s="57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S36" s="58">
+      <c r="S36" s="57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -5531,7 +5545,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="27"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="17"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -5553,8 +5567,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:M13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5563,7 +5577,7 @@
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="8.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="22" customWidth="1"/>
     <col min="15" max="15" width="1.85546875" style="8" customWidth="1"/>
     <col min="16" max="19" width="8.42578125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="8"/>
@@ -5573,38 +5587,42 @@
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="23"/>
+      <c r="N1" s="22"/>
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
-      <c r="N3" s="23"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="69">
-        <v>42156</v>
-      </c>
-      <c r="N4" s="23"/>
+      <c r="C4" s="68">
+        <v>43252</v>
+      </c>
+      <c r="N4" s="22"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="68">
+        <v>43616</v>
+      </c>
       <c r="H5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="8"/>
       <c r="Q5" s="14" t="s">
         <v>11</v>
@@ -5612,65 +5630,65 @@
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="N6" s="23"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:19" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="1:19" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="47" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="47">
         <f>DATE(YEAR(C4)-1,1,1)</f>
-        <v>41640</v>
-      </c>
-      <c r="R7" s="48">
+        <v>42736</v>
+      </c>
+      <c r="R7" s="47">
         <f>DATE(YEAR(C4)-2,1,1)</f>
-        <v>41275</v>
-      </c>
-      <c r="S7" s="48">
+        <v>42370</v>
+      </c>
+      <c r="S7" s="47">
         <f>DATE(YEAR(C4)-3,1,1)</f>
-        <v>40909</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5713,62 +5731,62 @@
       <c r="M8" s="5">
         <v>472499.99999999994</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="23">
         <f>SUM(B8:M8)</f>
         <v>3600000</v>
       </c>
       <c r="O8" s="15"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="49"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>0.53</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>0.53</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.53</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>0.53</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>0.53</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <v>0.53</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>0.53</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>0.53</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="31">
         <v>0.53</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <v>0.53</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="31">
         <v>0.53</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="31">
         <v>0.53</v>
       </c>
-      <c r="N9" s="33"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
@@ -5822,24 +5840,24 @@
         <f t="shared" si="0"/>
         <v>250424.99999999997</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <f>SUM(B10:M10)</f>
         <v>1908000</v>
       </c>
       <c r="O10" s="9"/>
-      <c r="P10" s="51">
+      <c r="P10" s="50">
         <f>P8*P9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="51">
+      <c r="R10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="51">
+      <c r="S10" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5858,12 +5876,12 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="25"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="53"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -5917,62 +5935,62 @@
         <f t="shared" si="2"/>
         <v>70874.999999999985</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="23">
         <f>SUM(B12:M12)</f>
         <v>465000</v>
       </c>
       <c r="O12" s="16"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>70</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>70</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>70</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>70</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>70</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="31">
         <v>70</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>70</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>70</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>70</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <v>70</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="31">
         <v>70</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="31">
         <v>70</v>
       </c>
-      <c r="N13" s="33"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
     </row>
     <row r="14" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -6026,24 +6044,24 @@
         <f t="shared" si="3"/>
         <v>4961249.9999999991</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="21">
         <f>SUM(B14:M14)</f>
         <v>32550000</v>
       </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="51">
+      <c r="P14" s="50">
         <f>P12*P13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S14" s="42">
+      <c r="S14" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6062,12 +6080,12 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="25"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="53"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
@@ -6109,63 +6127,63 @@
       <c r="M16" s="6">
         <v>19</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="23">
         <f>SUM(B16:M16)</f>
         <v>220</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>500</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>500</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>500</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>500</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>500</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <v>1000</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>1000</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <v>1000</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="31">
         <v>1000</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <v>1000</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="31">
         <v>1000</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="31">
         <v>1000</v>
       </c>
-      <c r="N17" s="33"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="34"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="33"/>
     </row>
     <row r="18" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
@@ -6219,24 +6237,24 @@
         <f t="shared" si="4"/>
         <v>19000</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <f>SUM(B18:M18)</f>
         <v>182500</v>
       </c>
       <c r="O18" s="9"/>
-      <c r="P18" s="51">
+      <c r="P18" s="50">
         <f>P16*P17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="41">
         <f t="shared" ref="Q18:S18" si="5">Q16*Q17</f>
         <v>0</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="42">
+      <c r="S18" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6255,12 +6273,12 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="25"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="53"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
@@ -6314,62 +6332,62 @@
         <f t="shared" si="6"/>
         <v>7.6000000000000005</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="23">
         <f>SUM(B20:M20)</f>
         <v>88</v>
       </c>
       <c r="O20" s="16"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
     </row>
     <row r="21" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>300</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>300</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>300</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <v>300</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>300</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <v>300</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="31">
         <v>300</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="31">
         <v>300</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="31">
         <v>300</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="31">
         <v>300</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="31">
         <v>300</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="31">
         <v>300</v>
       </c>
-      <c r="N21" s="33"/>
+      <c r="N21" s="32"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
     </row>
     <row r="22" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
@@ -6423,24 +6441,24 @@
         <f t="shared" si="7"/>
         <v>2280</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <f>SUM(B22:M22)</f>
         <v>26400</v>
       </c>
       <c r="O22" s="9"/>
-      <c r="P22" s="51">
+      <c r="P22" s="50">
         <f>P20*P21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="41">
         <f t="shared" ref="Q22:S22" si="8">Q20*Q21</f>
         <v>0</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S22" s="42">
+      <c r="S22" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6459,12 +6477,12 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="25"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="53"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -6518,62 +6536,62 @@
         <f t="shared" si="10"/>
         <v>94500</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="23">
         <f>SUM(B24:M24)</f>
         <v>645000</v>
       </c>
       <c r="O24" s="16"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
     </row>
     <row r="25" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>20</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <v>20</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <v>20</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <v>20</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <v>20</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="31">
         <v>20</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="31">
         <v>20</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="31">
         <v>20</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="31">
         <v>20</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="31">
         <v>20</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="31">
         <v>20</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
         <v>20</v>
       </c>
-      <c r="N25" s="33"/>
+      <c r="N25" s="32"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
     </row>
     <row r="26" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -6627,24 +6645,24 @@
         <f t="shared" si="11"/>
         <v>1890000</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="21">
         <f>SUM(B26:M26)</f>
         <v>12900000</v>
       </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="51">
+      <c r="P26" s="50">
         <f>P24*P25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S26" s="42">
+      <c r="S26" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -6663,276 +6681,276 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="25"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="53"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37">
         <f>SUM(B28:M28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="16"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
     </row>
     <row r="29" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
+      <c r="A29" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
     </row>
     <row r="30" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="41">
         <f>B28*B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <f t="shared" ref="C30:M30" si="12">C28*C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="42">
         <f>SUM(B30:M30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="51">
+      <c r="P30" s="50">
         <f>P28*P29</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="41">
         <f t="shared" ref="Q30:S30" si="13">Q28*Q29</f>
         <v>0</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S30" s="42">
+      <c r="S30" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="46"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="53"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="52"/>
     </row>
     <row r="32" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37">
         <f>SUM(B32:M32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="16"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
     </row>
     <row r="33" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
+      <c r="A33" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="39"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
     </row>
     <row r="34" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="41">
         <f t="shared" ref="B34:M34" si="14">B32*B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34" s="41">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="42">
         <f>SUM(B34:M34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="9"/>
-      <c r="P34" s="51">
+      <c r="P34" s="50">
         <f>P32*P33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="42">
+      <c r="Q34" s="41">
         <f>Q32*Q33</f>
         <v>0</v>
       </c>
-      <c r="R34" s="42">
+      <c r="R34" s="41">
         <f>R32*R33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="42">
+      <c r="S34" s="41">
         <f>S32*S33</f>
         <v>0</v>
       </c>
@@ -6951,83 +6969,83 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="26"/>
+      <c r="N35" s="25"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="57"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="56"/>
     </row>
     <row r="36" spans="1:19" s="11" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="60">
+      <c r="B36" s="59">
         <f>(B10+B14+B18+B22+B26+B30+B34)</f>
         <v>1586320</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="59">
         <f t="shared" ref="C36:S36" si="15">(C10+C14+C18+C22+C26+C30+C34)</f>
         <v>2430580</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="59">
         <f t="shared" si="15"/>
         <v>2853020</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="59">
         <f t="shared" si="15"/>
         <v>3695420</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="59">
         <f t="shared" si="15"/>
         <v>1985535</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="59">
         <f t="shared" si="15"/>
         <v>3314145</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <f t="shared" si="15"/>
         <v>4720395</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="59">
         <f t="shared" si="15"/>
         <v>6599145</v>
       </c>
-      <c r="J36" s="60">
+      <c r="J36" s="59">
         <f t="shared" si="15"/>
         <v>3067095</v>
       </c>
-      <c r="K36" s="60">
+      <c r="K36" s="59">
         <f t="shared" si="15"/>
         <v>5096145</v>
       </c>
-      <c r="L36" s="60">
+      <c r="L36" s="59">
         <f t="shared" si="15"/>
         <v>5096145</v>
       </c>
-      <c r="M36" s="60">
+      <c r="M36" s="59">
         <f t="shared" si="15"/>
         <v>7122954.9999999991</v>
       </c>
-      <c r="N36" s="61">
+      <c r="N36" s="60">
         <f>SUM(B36:M36)</f>
         <v>47566900</v>
       </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="51">
+      <c r="P36" s="50">
         <f>(P10+P14+P18+P22+P26+P30+P34)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36" s="50">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R36" s="58">
+      <c r="R36" s="57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S36" s="58">
+      <c r="S36" s="57">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -7046,7 +7064,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="27"/>
+      <c r="N37" s="26"/>
       <c r="O37" s="17"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -7065,8 +7083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7084,1017 +7102,1017 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="65">
+      <c r="B2" s="74"/>
+      <c r="C2" s="64">
         <v>5000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="62"/>
+      <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="63">
-        <v>0</v>
-      </c>
-      <c r="B5" s="63">
+      <c r="A5" s="62">
+        <v>0</v>
+      </c>
+      <c r="B5" s="62">
         <v>0.02</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="62">
         <f>C2*B5</f>
         <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="63">
+      <c r="A6" s="62">
         <v>0.5</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="62">
         <v>0.05</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="62">
         <f>C2*B6</f>
         <v>250000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="63">
+      <c r="A7" s="62">
         <v>1</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="62">
         <v>0.08</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="62">
         <f>C2*B7</f>
         <v>400000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="63">
+      <c r="A8" s="62">
         <v>1.5</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="62">
         <v>0.1</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="62">
         <f>C2*B8</f>
         <v>500000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="63">
+      <c r="A9" s="62">
         <v>2</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="62">
         <v>0.12</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="62">
         <f>C2*B9</f>
         <v>600000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="63">
+      <c r="A10" s="62">
         <v>2.5</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="62">
         <v>0.18</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="62">
         <f>C2*B10</f>
         <v>900000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="63">
+      <c r="A11" s="62">
         <v>3</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="62">
         <v>0.2</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="62">
         <f>C2*B11</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="63">
+      <c r="A12" s="62">
         <v>3.5</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="62">
         <v>0.25</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="62">
         <f>C2*B12</f>
         <v>1250000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="73">
+      <c r="A13" s="72">
         <v>4</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="72">
         <v>0.27</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="72">
         <f>C2*B13</f>
         <v>1350000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="64">
-        <f>SUM(B5:B13)</f>
-        <v>1.27</v>
-      </c>
-      <c r="C15" s="64">
+      <c r="B15" s="63">
+        <f>SUM(B5:B12)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="63">
         <f>SUM(C5:C12)</f>
         <v>5000000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="62" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="63">
-        <v>0</v>
-      </c>
-      <c r="B19" s="63">
+      <c r="A19" s="62">
+        <v>0</v>
+      </c>
+      <c r="B19" s="62">
         <v>1</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="62">
         <v>0.15</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="62">
         <f>G21*C19</f>
         <v>15000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62">
         <v>2</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="62">
         <v>0.25</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="62">
         <f>G21*C20</f>
         <v>25000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62">
         <v>3</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="62">
         <v>0.25</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="62">
         <f>G21*C21</f>
         <v>25000</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="67">
         <f>C5</f>
         <v>100000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62">
         <v>4</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="62">
         <v>0.35</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="62">
         <f>G21*C22</f>
         <v>35000</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="67">
         <f>SUM(C19:C22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="63">
+      <c r="A23" s="62">
         <v>0.5</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="62">
         <v>5</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="62">
         <v>0.15</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="62">
         <f>G25*C23</f>
         <v>37500</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62">
         <v>6</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="62">
         <v>0.25</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="62">
         <f>G25*C24</f>
         <v>62500</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62">
         <v>7</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="62">
         <v>0.25</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="62">
         <f>G25*C25</f>
         <v>62500</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="66">
         <f>C6</f>
         <v>250000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62">
         <v>8</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="62">
         <v>0.35</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="62">
         <f>G25*C26</f>
         <v>87500</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="66">
         <f>SUM(C23:C26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="63">
+      <c r="A27" s="62">
         <v>1</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="62">
         <v>9</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="62">
         <v>0.15</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="62">
         <f>G29*C27</f>
         <v>60000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62">
         <v>10</v>
       </c>
-      <c r="C28" s="63">
+      <c r="C28" s="62">
         <v>0.25</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="62">
         <f>G29*C28</f>
         <v>100000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62">
         <v>11</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="62">
         <v>0.25</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="62">
         <f>G29*C29</f>
         <v>100000</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="65">
         <f>C7</f>
         <v>400000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63">
+      <c r="A30" s="62"/>
+      <c r="B30" s="62">
         <v>12</v>
       </c>
-      <c r="C30" s="63">
+      <c r="C30" s="62">
         <v>0.35</v>
       </c>
-      <c r="D30" s="63">
+      <c r="D30" s="62">
         <f>G29*C30</f>
         <v>140000</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="65">
         <f>SUM(C27:C30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="62" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="63">
+      <c r="A34" s="62">
         <v>1</v>
       </c>
-      <c r="B34" s="63">
+      <c r="B34" s="62">
         <v>1</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="62">
         <v>0.15</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="62">
         <f>G36*C34</f>
         <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63">
+      <c r="A35" s="62"/>
+      <c r="B35" s="62">
         <v>2</v>
       </c>
-      <c r="C35" s="63">
+      <c r="C35" s="62">
         <v>0.23</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="62">
         <f>G36*C35</f>
         <v>92000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63">
+      <c r="A36" s="62"/>
+      <c r="B36" s="62">
         <v>3</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="62">
         <v>0.27</v>
       </c>
-      <c r="D36" s="63">
+      <c r="D36" s="62">
         <f>G36*C36</f>
         <v>108000</v>
       </c>
-      <c r="F36" s="70" t="s">
+      <c r="F36" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="68">
+      <c r="G36" s="67">
         <f>C7</f>
         <v>400000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63">
+      <c r="A37" s="62"/>
+      <c r="B37" s="62">
         <v>4</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="62">
         <v>0.35</v>
       </c>
-      <c r="D37" s="63">
+      <c r="D37" s="62">
         <f>G36*C37</f>
         <v>140000</v>
       </c>
-      <c r="F37" s="70" t="s">
+      <c r="F37" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="68">
+      <c r="G37" s="67">
         <f>SUM(C34:C37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="63">
+      <c r="A38" s="62">
         <v>1.5</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="62">
         <v>5</v>
       </c>
-      <c r="C38" s="63">
+      <c r="C38" s="62">
         <v>0.15</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="62">
         <f>G40*C38</f>
         <v>75000</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63">
+      <c r="A39" s="62"/>
+      <c r="B39" s="62">
         <v>6</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="62">
         <v>0.25</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="62">
         <f>G40*C39</f>
         <v>125000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63">
+      <c r="A40" s="62"/>
+      <c r="B40" s="62">
         <v>7</v>
       </c>
-      <c r="C40" s="63">
+      <c r="C40" s="62">
         <v>0.25</v>
       </c>
-      <c r="D40" s="63">
+      <c r="D40" s="62">
         <f>G40*C40</f>
         <v>125000</v>
       </c>
-      <c r="F40" s="71" t="s">
+      <c r="F40" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="66">
         <f>C8</f>
         <v>500000</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62">
         <v>8</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="62">
         <v>0.35</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D41" s="62">
         <f>G40*C41</f>
         <v>175000</v>
       </c>
-      <c r="F41" s="71" t="s">
+      <c r="F41" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="66">
         <f>SUM(C38:C41)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="63">
+      <c r="A42" s="62">
         <v>2</v>
       </c>
-      <c r="B42" s="63">
+      <c r="B42" s="62">
         <v>9</v>
       </c>
-      <c r="C42" s="63">
+      <c r="C42" s="62">
         <v>0.15</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D42" s="62">
         <f>G44*C42</f>
         <v>90000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63">
+      <c r="A43" s="62"/>
+      <c r="B43" s="62">
         <v>10</v>
       </c>
-      <c r="C43" s="63">
+      <c r="C43" s="62">
         <v>0.25</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="62">
         <f>G44*C43</f>
         <v>150000</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63">
+      <c r="A44" s="62"/>
+      <c r="B44" s="62">
         <v>11</v>
       </c>
-      <c r="C44" s="63">
+      <c r="C44" s="62">
         <v>0.25</v>
       </c>
-      <c r="D44" s="63">
+      <c r="D44" s="62">
         <f>G44*C44</f>
         <v>150000</v>
       </c>
-      <c r="F44" s="72" t="s">
+      <c r="F44" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="66">
+      <c r="G44" s="65">
         <f>C9</f>
         <v>600000</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
-      <c r="B45" s="63">
+      <c r="A45" s="62"/>
+      <c r="B45" s="62">
         <v>12</v>
       </c>
-      <c r="C45" s="63">
+      <c r="C45" s="62">
         <v>0.35</v>
       </c>
-      <c r="D45" s="63">
+      <c r="D45" s="62">
         <f>G44*C45</f>
         <v>210000</v>
       </c>
-      <c r="F45" s="72" t="s">
+      <c r="F45" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="65">
         <f>SUM(C42:C45)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="62" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="63">
+      <c r="A49" s="62">
         <v>2</v>
       </c>
-      <c r="B49" s="63">
+      <c r="B49" s="62">
         <v>1</v>
       </c>
-      <c r="C49" s="63">
+      <c r="C49" s="62">
         <v>0.15</v>
       </c>
-      <c r="D49" s="63">
+      <c r="D49" s="62">
         <f>G51*C49</f>
         <v>90000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63">
+      <c r="A50" s="62"/>
+      <c r="B50" s="62">
         <v>2</v>
       </c>
-      <c r="C50" s="63">
+      <c r="C50" s="62">
         <v>0.23</v>
       </c>
-      <c r="D50" s="63">
+      <c r="D50" s="62">
         <f>G51*C50</f>
         <v>138000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63">
+      <c r="A51" s="62"/>
+      <c r="B51" s="62">
         <v>3</v>
       </c>
-      <c r="C51" s="63">
+      <c r="C51" s="62">
         <v>0.27</v>
       </c>
-      <c r="D51" s="63">
+      <c r="D51" s="62">
         <f>G51*C51</f>
         <v>162000</v>
       </c>
-      <c r="F51" s="70" t="s">
+      <c r="F51" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="68">
+      <c r="G51" s="67">
         <f>C9</f>
         <v>600000</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63">
+      <c r="A52" s="62"/>
+      <c r="B52" s="62">
         <v>4</v>
       </c>
-      <c r="C52" s="63">
+      <c r="C52" s="62">
         <v>0.35</v>
       </c>
-      <c r="D52" s="63">
+      <c r="D52" s="62">
         <f>G51*C52</f>
         <v>210000</v>
       </c>
-      <c r="F52" s="70" t="s">
+      <c r="F52" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="68">
+      <c r="G52" s="67">
         <f>SUM(C49:C52)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="63">
+      <c r="A53" s="62">
         <v>2.5</v>
       </c>
-      <c r="B53" s="63">
+      <c r="B53" s="62">
         <v>5</v>
       </c>
-      <c r="C53" s="63">
+      <c r="C53" s="62">
         <v>0.15</v>
       </c>
-      <c r="D53" s="63">
+      <c r="D53" s="62">
         <f>G55*C53</f>
         <v>135000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63">
+      <c r="A54" s="62"/>
+      <c r="B54" s="62">
         <v>6</v>
       </c>
-      <c r="C54" s="63">
+      <c r="C54" s="62">
         <v>0.25</v>
       </c>
-      <c r="D54" s="63">
+      <c r="D54" s="62">
         <f>G55*C54</f>
         <v>225000</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
-      <c r="B55" s="63">
+      <c r="A55" s="62"/>
+      <c r="B55" s="62">
         <v>7</v>
       </c>
-      <c r="C55" s="63">
+      <c r="C55" s="62">
         <v>0.25</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D55" s="62">
         <f>G55*C55</f>
         <v>225000</v>
       </c>
-      <c r="F55" s="71" t="s">
+      <c r="F55" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G55" s="67">
+      <c r="G55" s="66">
         <f>C10</f>
         <v>900000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
-      <c r="B56" s="63">
+      <c r="A56" s="62"/>
+      <c r="B56" s="62">
         <v>8</v>
       </c>
-      <c r="C56" s="63">
+      <c r="C56" s="62">
         <v>0.35</v>
       </c>
-      <c r="D56" s="63">
+      <c r="D56" s="62">
         <f>G55*C56</f>
         <v>315000</v>
       </c>
-      <c r="F56" s="71" t="s">
+      <c r="F56" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G56" s="67">
+      <c r="G56" s="66">
         <f>SUM(C53:C56)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="63">
+      <c r="A57" s="62">
         <v>3</v>
       </c>
-      <c r="B57" s="63">
+      <c r="B57" s="62">
         <v>9</v>
       </c>
-      <c r="C57" s="63">
+      <c r="C57" s="62">
         <v>0.15</v>
       </c>
-      <c r="D57" s="63">
+      <c r="D57" s="62">
         <f>G59*C57</f>
         <v>150000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
-      <c r="B58" s="63">
+      <c r="A58" s="62"/>
+      <c r="B58" s="62">
         <v>10</v>
       </c>
-      <c r="C58" s="63">
+      <c r="C58" s="62">
         <v>0.25</v>
       </c>
-      <c r="D58" s="63">
+      <c r="D58" s="62">
         <f>G59*C58</f>
         <v>250000</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
-      <c r="B59" s="63">
+      <c r="A59" s="62"/>
+      <c r="B59" s="62">
         <v>11</v>
       </c>
-      <c r="C59" s="63">
+      <c r="C59" s="62">
         <v>0.25</v>
       </c>
-      <c r="D59" s="63">
+      <c r="D59" s="62">
         <f>G59*C59</f>
         <v>250000</v>
       </c>
-      <c r="F59" s="72" t="s">
+      <c r="F59" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="66">
+      <c r="G59" s="65">
         <f>C11</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
-      <c r="B60" s="63">
+      <c r="A60" s="62"/>
+      <c r="B60" s="62">
         <v>12</v>
       </c>
-      <c r="C60" s="63">
+      <c r="C60" s="62">
         <v>0.35</v>
       </c>
-      <c r="D60" s="63">
+      <c r="D60" s="62">
         <f>G59*C60</f>
         <v>350000</v>
       </c>
-      <c r="F60" s="72" t="s">
+      <c r="F60" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="66">
+      <c r="G60" s="65">
         <f>SUM(C57:C60)</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="63" t="s">
+      <c r="D63" s="62" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="63">
+      <c r="A64" s="62">
         <v>3</v>
       </c>
-      <c r="B64" s="63">
+      <c r="B64" s="62">
         <v>1</v>
       </c>
-      <c r="C64" s="63">
+      <c r="C64" s="62">
         <v>0.15</v>
       </c>
-      <c r="D64" s="63">
+      <c r="D64" s="62">
         <f>G66*C64</f>
         <v>150000</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
-      <c r="B65" s="63">
+      <c r="A65" s="62"/>
+      <c r="B65" s="62">
         <v>2</v>
       </c>
-      <c r="C65" s="63">
+      <c r="C65" s="62">
         <v>0.23</v>
       </c>
-      <c r="D65" s="63">
+      <c r="D65" s="62">
         <f>G66*C65</f>
         <v>230000</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
-      <c r="B66" s="63">
+      <c r="A66" s="62"/>
+      <c r="B66" s="62">
         <v>3</v>
       </c>
-      <c r="C66" s="63">
+      <c r="C66" s="62">
         <v>0.27</v>
       </c>
-      <c r="D66" s="63">
+      <c r="D66" s="62">
         <f>G66*C66</f>
         <v>270000</v>
       </c>
-      <c r="F66" s="70" t="s">
+      <c r="F66" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G66" s="68">
+      <c r="G66" s="67">
         <f>C11</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="63"/>
-      <c r="B67" s="63">
+      <c r="A67" s="62"/>
+      <c r="B67" s="62">
         <v>4</v>
       </c>
-      <c r="C67" s="63">
+      <c r="C67" s="62">
         <v>0.35</v>
       </c>
-      <c r="D67" s="63">
+      <c r="D67" s="62">
         <f>G66*C67</f>
         <v>350000</v>
       </c>
-      <c r="F67" s="70" t="s">
+      <c r="F67" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="G67" s="68">
+      <c r="G67" s="67">
         <f>SUM(C64:C67)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="63">
+      <c r="A68" s="62">
         <v>3.5</v>
       </c>
-      <c r="B68" s="63">
+      <c r="B68" s="62">
         <v>5</v>
       </c>
-      <c r="C68" s="63">
+      <c r="C68" s="62">
         <v>0.15</v>
       </c>
-      <c r="D68" s="63">
+      <c r="D68" s="62">
         <f>G70*C68</f>
         <v>187500</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
-      <c r="B69" s="63">
+      <c r="A69" s="62"/>
+      <c r="B69" s="62">
         <v>6</v>
       </c>
-      <c r="C69" s="63">
+      <c r="C69" s="62">
         <v>0.25</v>
       </c>
-      <c r="D69" s="63">
+      <c r="D69" s="62">
         <f>G70*C69</f>
         <v>312500</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="63"/>
-      <c r="B70" s="63">
+      <c r="A70" s="62"/>
+      <c r="B70" s="62">
         <v>7</v>
       </c>
-      <c r="C70" s="63">
+      <c r="C70" s="62">
         <v>0.25</v>
       </c>
-      <c r="D70" s="63">
+      <c r="D70" s="62">
         <f>G70*C70</f>
         <v>312500</v>
       </c>
-      <c r="F70" s="71" t="s">
+      <c r="F70" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G70" s="67">
+      <c r="G70" s="66">
         <f>C12</f>
         <v>1250000</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
-      <c r="B71" s="63">
+      <c r="A71" s="62"/>
+      <c r="B71" s="62">
         <v>8</v>
       </c>
-      <c r="C71" s="63">
+      <c r="C71" s="62">
         <v>0.35</v>
       </c>
-      <c r="D71" s="63">
+      <c r="D71" s="62">
         <f>G70*C71</f>
         <v>437500</v>
       </c>
-      <c r="F71" s="71" t="s">
+      <c r="F71" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G71" s="67">
+      <c r="G71" s="66">
         <f>SUM(C68:C71)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="63">
+      <c r="A72" s="62">
         <v>4</v>
       </c>
-      <c r="B72" s="63">
+      <c r="B72" s="62">
         <v>9</v>
       </c>
-      <c r="C72" s="63">
+      <c r="C72" s="62">
         <v>0.15</v>
       </c>
-      <c r="D72" s="63">
+      <c r="D72" s="62">
         <f>G74*C72</f>
         <v>202500</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="63"/>
-      <c r="B73" s="63">
+      <c r="A73" s="62"/>
+      <c r="B73" s="62">
         <v>10</v>
       </c>
-      <c r="C73" s="63">
+      <c r="C73" s="62">
         <v>0.25</v>
       </c>
-      <c r="D73" s="63">
+      <c r="D73" s="62">
         <f>G74*C73</f>
         <v>337500</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
-      <c r="B74" s="63">
+      <c r="A74" s="62"/>
+      <c r="B74" s="62">
         <v>11</v>
       </c>
-      <c r="C74" s="63">
+      <c r="C74" s="62">
         <v>0.25</v>
       </c>
-      <c r="D74" s="63">
+      <c r="D74" s="62">
         <f>G74*C74</f>
         <v>337500</v>
       </c>
-      <c r="F74" s="72" t="s">
+      <c r="F74" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="G74" s="66">
+      <c r="G74" s="65">
         <f>C13</f>
         <v>1350000</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
-      <c r="B75" s="63">
+      <c r="A75" s="62"/>
+      <c r="B75" s="62">
         <v>12</v>
       </c>
-      <c r="C75" s="63">
+      <c r="C75" s="62">
         <v>0.35</v>
       </c>
-      <c r="D75" s="63">
+      <c r="D75" s="62">
         <f>G74*C75</f>
         <v>472499.99999999994</v>
       </c>
-      <c r="F75" s="72" t="s">
+      <c r="F75" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="G75" s="66">
+      <c r="G75" s="65">
         <f>SUM(C72:C75)</f>
         <v>1</v>
       </c>
